--- a/Stocks/BA/BA_HighLow.xlsx
+++ b/Stocks/BA/BA_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>234.3399963378906</v>
+        <v>250.5099945068359</v>
       </c>
       <c r="B2">
-        <v>247.5800018310547</v>
+        <v>252.8399963378906</v>
       </c>
       <c r="C2">
-        <v>231.6999969482422</v>
+        <v>249.4400024414062</v>
       </c>
       <c r="D2">
-        <v>247.1900024414062</v>
+        <v>252.3600006103516</v>
       </c>
       <c r="E2">
-        <v>247.1900024414062</v>
+        <v>252.3600006103516</v>
       </c>
       <c r="F2">
-        <v>27553600</v>
+        <v>12255900</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>249.6199951171875</v>
+        <v>250.5700073242188</v>
       </c>
       <c r="B3">
-        <v>250.8999938964844</v>
+        <v>251.5500030517578</v>
       </c>
       <c r="C3">
-        <v>240.3000030517578</v>
+        <v>246.2899932861328</v>
       </c>
       <c r="D3">
-        <v>244.8699951171875</v>
+        <v>249.5200042724609</v>
       </c>
       <c r="E3">
-        <v>244.8699951171875</v>
+        <v>249.5200042724609</v>
       </c>
       <c r="F3">
-        <v>17157100</v>
+        <v>10383600</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>251.3000030517578</v>
+        <v>248.3300018310547</v>
       </c>
       <c r="B4">
-        <v>254.7100067138672</v>
+        <v>254.4900054931641</v>
       </c>
       <c r="C4">
-        <v>248.0299987792969</v>
+        <v>246.1000061035156</v>
       </c>
       <c r="D4">
-        <v>250.5200042724609</v>
+        <v>253.2700042724609</v>
       </c>
       <c r="E4">
-        <v>250.5200042724609</v>
+        <v>253.2700042724609</v>
       </c>
       <c r="F4">
-        <v>22198800</v>
+        <v>15901400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>251.2400054931641</v>
+        <v>255.3200073242188</v>
       </c>
       <c r="B5">
-        <v>253.5</v>
+        <v>258.3699951171875</v>
       </c>
       <c r="C5">
-        <v>248.9100036621094</v>
+        <v>251.2799987792969</v>
       </c>
       <c r="D5">
-        <v>252.0099945068359</v>
+        <v>252.4299926757812</v>
       </c>
       <c r="E5">
-        <v>252.0099945068359</v>
+        <v>252.4299926757812</v>
       </c>
       <c r="F5">
-        <v>12577300</v>
+        <v>12661800</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>254.6999969482422</v>
+        <v>253.5599975585938</v>
       </c>
       <c r="B6">
-        <v>257.8800048828125</v>
+        <v>254.1199951171875</v>
       </c>
       <c r="C6">
-        <v>253.3600006103516</v>
+        <v>249.4299926757812</v>
       </c>
       <c r="D6">
-        <v>254.7200012207031</v>
+        <v>251.1100006103516</v>
       </c>
       <c r="E6">
-        <v>254.7200012207031</v>
+        <v>251.1100006103516</v>
       </c>
       <c r="F6">
-        <v>14138500</v>
+        <v>9479000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>256.6700134277344</v>
+        <v>252</v>
       </c>
       <c r="B7">
-        <v>257.8800048828125</v>
+        <v>253.0500030517578</v>
       </c>
       <c r="C7">
-        <v>251.3099975585938</v>
+        <v>246.2299957275391</v>
       </c>
       <c r="D7">
-        <v>252.9600067138672</v>
+        <v>248.1799926757812</v>
       </c>
       <c r="E7">
-        <v>252.9600067138672</v>
+        <v>248.1799926757812</v>
       </c>
       <c r="F7">
-        <v>10934500</v>
+        <v>14606000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>256.5599975585938</v>
+        <v>247</v>
       </c>
       <c r="B8">
-        <v>260.4800109863281</v>
+        <v>247</v>
       </c>
       <c r="C8">
-        <v>256.25</v>
+        <v>242.2200012207031</v>
       </c>
       <c r="D8">
-        <v>259.3599853515625</v>
+        <v>244.1499938964844</v>
       </c>
       <c r="E8">
-        <v>259.3599853515625</v>
+        <v>244.1499938964844</v>
       </c>
       <c r="F8">
-        <v>13750300</v>
+        <v>9249300</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>257.2099914550781</v>
+        <v>241.0299987792969</v>
       </c>
       <c r="B9">
-        <v>259.3500061035156</v>
+        <v>241.0899963378906</v>
       </c>
       <c r="C9">
-        <v>254.6600036621094</v>
+        <v>232.3399963378906</v>
       </c>
       <c r="D9">
-        <v>255.1699981689453</v>
+        <v>234.0599975585938</v>
       </c>
       <c r="E9">
-        <v>255.1699981689453</v>
+        <v>234.0599975585938</v>
       </c>
       <c r="F9">
-        <v>11180300</v>
+        <v>19483600</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>255.3099975585938</v>
+        <v>232.2200012207031</v>
       </c>
       <c r="B10">
-        <v>255.8999938964844</v>
+        <v>236.7599945068359</v>
       </c>
       <c r="C10">
-        <v>250.8300018310547</v>
+        <v>230.2200012207031</v>
       </c>
       <c r="D10">
-        <v>252.5800018310547</v>
+        <v>235.9199981689453</v>
       </c>
       <c r="E10">
-        <v>252.5800018310547</v>
+        <v>235.9199981689453</v>
       </c>
       <c r="F10">
-        <v>9925700</v>
+        <v>12847000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>251.6999969482422</v>
+        <v>235.9600067138672</v>
       </c>
       <c r="B11">
-        <v>254.9499969482422</v>
+        <v>239.6499938964844</v>
       </c>
       <c r="C11">
-        <v>249.3099975585938</v>
+        <v>233.3800048828125</v>
       </c>
       <c r="D11">
-        <v>254.9499969482422</v>
+        <v>234.3300018310547</v>
       </c>
       <c r="E11">
-        <v>254.9499969482422</v>
+        <v>234.3300018310547</v>
       </c>
       <c r="F11">
-        <v>9899900</v>
+        <v>13854400</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>250.5099945068359</v>
+        <v>233.8899993896484</v>
       </c>
       <c r="B12">
-        <v>252.8399963378906</v>
+        <v>238.5800018310547</v>
       </c>
       <c r="C12">
-        <v>249.4400024414062</v>
+        <v>233.1100006103516</v>
       </c>
       <c r="D12">
-        <v>252.3600006103516</v>
+        <v>238.3800048828125</v>
       </c>
       <c r="E12">
-        <v>252.3600006103516</v>
+        <v>238.3800048828125</v>
       </c>
       <c r="F12">
-        <v>12255900</v>
+        <v>11533100</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>250.5700073242188</v>
+        <v>240.2400054931641</v>
       </c>
       <c r="B13">
-        <v>251.5500030517578</v>
+        <v>244.6499938964844</v>
       </c>
       <c r="C13">
-        <v>246.2899932861328</v>
+        <v>240.1000061035156</v>
       </c>
       <c r="D13">
-        <v>249.5200042724609</v>
+        <v>241.4400024414062</v>
       </c>
       <c r="E13">
-        <v>249.5200042724609</v>
+        <v>241.4400024414062</v>
       </c>
       <c r="F13">
-        <v>10383600</v>
+        <v>10599600</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>248.3300018310547</v>
+        <v>241.8800048828125</v>
       </c>
       <c r="B14">
-        <v>254.4900054931641</v>
+        <v>243.4900054931641</v>
       </c>
       <c r="C14">
-        <v>246.1000061035156</v>
+        <v>239.4100036621094</v>
       </c>
       <c r="D14">
-        <v>253.2700042724609</v>
+        <v>242.4700012207031</v>
       </c>
       <c r="E14">
-        <v>253.2700042724609</v>
+        <v>242.4700012207031</v>
       </c>
       <c r="F14">
-        <v>15901400</v>
+        <v>10583300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>255.3200073242188</v>
+        <v>239</v>
       </c>
       <c r="B15">
-        <v>258.3699951171875</v>
+        <v>239.6499938964844</v>
       </c>
       <c r="C15">
-        <v>251.2799987792969</v>
+        <v>232.8500061035156</v>
       </c>
       <c r="D15">
-        <v>252.4299926757812</v>
+        <v>235.4600067138672</v>
       </c>
       <c r="E15">
-        <v>252.4299926757812</v>
+        <v>235.4600067138672</v>
       </c>
       <c r="F15">
-        <v>12661800</v>
+        <v>19054100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>253.5599975585938</v>
+        <v>237</v>
       </c>
       <c r="B16">
-        <v>254.1199951171875</v>
+        <v>237.6799926757812</v>
       </c>
       <c r="C16">
-        <v>249.4299926757812</v>
+        <v>231.8000030517578</v>
       </c>
       <c r="D16">
-        <v>251.1100006103516</v>
+        <v>235.9400024414062</v>
       </c>
       <c r="E16">
-        <v>251.1100006103516</v>
+        <v>235.9400024414062</v>
       </c>
       <c r="F16">
-        <v>9479000</v>
+        <v>12296100</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>252</v>
+        <v>233.6799926757812</v>
       </c>
       <c r="B17">
-        <v>253.0500030517578</v>
+        <v>236.7700042724609</v>
       </c>
       <c r="C17">
-        <v>246.2299957275391</v>
+        <v>232.6999969482422</v>
       </c>
       <c r="D17">
-        <v>248.1799926757812</v>
+        <v>234.3099975585938</v>
       </c>
       <c r="E17">
-        <v>248.1799926757812</v>
+        <v>234.3099975585938</v>
       </c>
       <c r="F17">
-        <v>14606000</v>
+        <v>10380400</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>247</v>
+        <v>234.1100006103516</v>
       </c>
       <c r="B18">
-        <v>247</v>
+        <v>237.1000061035156</v>
       </c>
       <c r="C18">
-        <v>242.2200012207031</v>
+        <v>233.8099975585938</v>
       </c>
       <c r="D18">
-        <v>244.1499938964844</v>
+        <v>235.1900024414062</v>
       </c>
       <c r="E18">
-        <v>244.1499938964844</v>
+        <v>235.1900024414062</v>
       </c>
       <c r="F18">
-        <v>9249300</v>
+        <v>9887800</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>241.0299987792969</v>
+        <v>235.75</v>
       </c>
       <c r="B19">
-        <v>241.0899963378906</v>
+        <v>236.6499938964844</v>
       </c>
       <c r="C19">
-        <v>232.3399963378906</v>
+        <v>225.6499938964844</v>
       </c>
       <c r="D19">
-        <v>234.0599975585938</v>
+        <v>233.6300048828125</v>
       </c>
       <c r="E19">
-        <v>234.0599975585938</v>
+        <v>233.6300048828125</v>
       </c>
       <c r="F19">
-        <v>19483600</v>
+        <v>17807200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>232.2200012207031</v>
+        <v>232.4499969482422</v>
       </c>
       <c r="B20">
-        <v>236.7599945068359</v>
+        <v>233.4900054931641</v>
       </c>
       <c r="C20">
-        <v>230.2200012207031</v>
+        <v>227.5599975585938</v>
       </c>
       <c r="D20">
-        <v>235.9199981689453</v>
+        <v>228.1799926757812</v>
       </c>
       <c r="E20">
-        <v>235.9199981689453</v>
+        <v>228.1799926757812</v>
       </c>
       <c r="F20">
-        <v>12847000</v>
+        <v>14913500</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>235.9600067138672</v>
+        <v>229.3000030517578</v>
       </c>
       <c r="B21">
-        <v>239.6499938964844</v>
+        <v>231.1699981689453</v>
       </c>
       <c r="C21">
-        <v>233.3800048828125</v>
+        <v>226.5500030517578</v>
       </c>
       <c r="D21">
-        <v>234.3300018310547</v>
+        <v>229.8099975585938</v>
       </c>
       <c r="E21">
-        <v>234.3300018310547</v>
+        <v>229.8099975585938</v>
       </c>
       <c r="F21">
-        <v>13854400</v>
+        <v>11857100</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>233.8899993896484</v>
+        <v>229.8000030517578</v>
       </c>
       <c r="B22">
-        <v>238.5800018310547</v>
+        <v>235.9100036621094</v>
       </c>
       <c r="C22">
-        <v>233.1100006103516</v>
+        <v>227.9900054931641</v>
       </c>
       <c r="D22">
-        <v>238.3800048828125</v>
+        <v>235.4700012207031</v>
       </c>
       <c r="E22">
-        <v>238.3800048828125</v>
+        <v>235.4700012207031</v>
       </c>
       <c r="F22">
-        <v>11533100</v>
+        <v>12823000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>240.2400054931641</v>
+        <v>236.8399963378906</v>
       </c>
       <c r="B23">
-        <v>244.6499938964844</v>
+        <v>241.1000061035156</v>
       </c>
       <c r="C23">
-        <v>240.1000061035156</v>
+        <v>232.5</v>
       </c>
       <c r="D23">
-        <v>241.4400024414062</v>
+        <v>232.9299926757812</v>
       </c>
       <c r="E23">
-        <v>241.4400024414062</v>
+        <v>232.9299926757812</v>
       </c>
       <c r="F23">
-        <v>10599600</v>
+        <v>14813900</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>241.8800048828125</v>
+        <v>226.5599975585938</v>
       </c>
       <c r="B24">
-        <v>243.4900054931641</v>
+        <v>230.1300048828125</v>
       </c>
       <c r="C24">
-        <v>239.4100036621094</v>
+        <v>223.8500061035156</v>
       </c>
       <c r="D24">
-        <v>242.4700012207031</v>
+        <v>228.8800048828125</v>
       </c>
       <c r="E24">
-        <v>242.4700012207031</v>
+        <v>228.8800048828125</v>
       </c>
       <c r="F24">
-        <v>10583300</v>
+        <v>16273200</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>239</v>
+        <v>227.25</v>
       </c>
       <c r="B25">
-        <v>239.6499938964844</v>
+        <v>229.7400054931641</v>
       </c>
       <c r="C25">
-        <v>232.8500061035156</v>
+        <v>220.6300048828125</v>
       </c>
       <c r="D25">
-        <v>235.4600067138672</v>
+        <v>220.7799987792969</v>
       </c>
       <c r="E25">
-        <v>235.4600067138672</v>
+        <v>220.7799987792969</v>
       </c>
       <c r="F25">
-        <v>19054100</v>
+        <v>14931200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B26">
-        <v>237.6799926757812</v>
+        <v>229.2700042724609</v>
       </c>
       <c r="C26">
-        <v>231.8000030517578</v>
+        <v>219.0700073242188</v>
       </c>
       <c r="D26">
-        <v>235.9400024414062</v>
+        <v>222.6399993896484</v>
       </c>
       <c r="E26">
-        <v>235.9400024414062</v>
+        <v>222.6399993896484</v>
       </c>
       <c r="F26">
-        <v>12296100</v>
+        <v>16503400</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>233.6799926757812</v>
+        <v>225.9900054931641</v>
       </c>
       <c r="B27">
-        <v>236.7700042724609</v>
+        <v>228.8099975585938</v>
       </c>
       <c r="C27">
-        <v>232.6999969482422</v>
+        <v>224.3500061035156</v>
       </c>
       <c r="D27">
-        <v>234.3099975585938</v>
+        <v>228.4700012207031</v>
       </c>
       <c r="E27">
-        <v>234.3099975585938</v>
+        <v>228.4700012207031</v>
       </c>
       <c r="F27">
-        <v>10380400</v>
+        <v>10162400</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>234.1100006103516</v>
+        <v>226.2400054931641</v>
       </c>
       <c r="B28">
-        <v>237.1000061035156</v>
+        <v>228.2599945068359</v>
       </c>
       <c r="C28">
-        <v>233.8099975585938</v>
+        <v>223.5800018310547</v>
       </c>
       <c r="D28">
-        <v>235.1900024414062</v>
+        <v>227.9799957275391</v>
       </c>
       <c r="E28">
-        <v>235.1900024414062</v>
+        <v>227.9799957275391</v>
       </c>
       <c r="F28">
-        <v>9887800</v>
+        <v>9559300</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>235.75</v>
+        <v>227.25</v>
       </c>
       <c r="B29">
-        <v>236.6499938964844</v>
+        <v>232.2700042724609</v>
       </c>
       <c r="C29">
-        <v>225.6499938964844</v>
+        <v>226.4299926757812</v>
       </c>
       <c r="D29">
-        <v>233.6300048828125</v>
+        <v>227.5500030517578</v>
       </c>
       <c r="E29">
-        <v>233.6300048828125</v>
+        <v>227.5500030517578</v>
       </c>
       <c r="F29">
-        <v>17807200</v>
+        <v>10081100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>232.4499969482422</v>
+        <v>223.1799926757812</v>
       </c>
       <c r="B30">
-        <v>233.4900054931641</v>
+        <v>225.1199951171875</v>
       </c>
       <c r="C30">
-        <v>227.5599975585938</v>
+        <v>220.2799987792969</v>
       </c>
       <c r="D30">
-        <v>228.1799926757812</v>
+        <v>224.4199981689453</v>
       </c>
       <c r="E30">
-        <v>228.1799926757812</v>
+        <v>224.4199981689453</v>
       </c>
       <c r="F30">
-        <v>14913500</v>
+        <v>13162700</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>229.3000030517578</v>
+        <v>225.1300048828125</v>
       </c>
       <c r="B31">
-        <v>231.1699981689453</v>
+        <v>228.4400024414062</v>
       </c>
       <c r="C31">
-        <v>226.5500030517578</v>
+        <v>223.7700042724609</v>
       </c>
       <c r="D31">
-        <v>229.8099975585938</v>
+        <v>227.6499938964844</v>
       </c>
       <c r="E31">
-        <v>229.8099975585938</v>
+        <v>227.6499938964844</v>
       </c>
       <c r="F31">
-        <v>11857100</v>
+        <v>9218900</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>229.8000030517578</v>
+        <v>232.8999938964844</v>
       </c>
       <c r="B32">
-        <v>235.9100036621094</v>
+        <v>236.3000030517578</v>
       </c>
       <c r="C32">
-        <v>227.9900054931641</v>
+        <v>231.3899993896484</v>
       </c>
       <c r="D32">
-        <v>235.4700012207031</v>
+        <v>234.8200073242188</v>
       </c>
       <c r="E32">
-        <v>235.4700012207031</v>
+        <v>234.8200073242188</v>
       </c>
       <c r="F32">
-        <v>12823000</v>
+        <v>16579000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>236.8399963378906</v>
+        <v>235.1399993896484</v>
       </c>
       <c r="B33">
-        <v>241.1000061035156</v>
+        <v>238.5</v>
       </c>
       <c r="C33">
-        <v>232.5</v>
+        <v>232.6000061035156</v>
       </c>
       <c r="D33">
-        <v>232.9299926757812</v>
+        <v>237.4400024414062</v>
       </c>
       <c r="E33">
-        <v>232.9299926757812</v>
+        <v>237.4400024414062</v>
       </c>
       <c r="F33">
-        <v>14813900</v>
+        <v>10106000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>226.5599975585938</v>
+        <v>240</v>
       </c>
       <c r="B34">
-        <v>230.1300048828125</v>
+        <v>243.7799987792969</v>
       </c>
       <c r="C34">
-        <v>223.8500061035156</v>
+        <v>239.2299957275391</v>
       </c>
       <c r="D34">
-        <v>228.8800048828125</v>
+        <v>240.7400054931641</v>
       </c>
       <c r="E34">
-        <v>228.8800048828125</v>
+        <v>240.7400054931641</v>
       </c>
       <c r="F34">
-        <v>16273200</v>
+        <v>12908000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>227.25</v>
+        <v>241.6999969482422</v>
       </c>
       <c r="B35">
-        <v>229.7400054931641</v>
+        <v>242.4900054931641</v>
       </c>
       <c r="C35">
-        <v>220.6300048828125</v>
+        <v>239.8699951171875</v>
       </c>
       <c r="D35">
-        <v>220.7799987792969</v>
+        <v>241.3699951171875</v>
       </c>
       <c r="E35">
-        <v>220.7799987792969</v>
+        <v>241.3699951171875</v>
       </c>
       <c r="F35">
-        <v>14931200</v>
+        <v>7240200</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>223</v>
+        <v>248.1100006103516</v>
       </c>
       <c r="B36">
-        <v>229.2700042724609</v>
+        <v>252.6000061035156</v>
       </c>
       <c r="C36">
-        <v>219.0700073242188</v>
+        <v>247.1900024414062</v>
       </c>
       <c r="D36">
-        <v>222.6399993896484</v>
+        <v>250.6999969482422</v>
       </c>
       <c r="E36">
-        <v>222.6399993896484</v>
+        <v>250.6999969482422</v>
       </c>
       <c r="F36">
-        <v>16503400</v>
+        <v>18404400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>225.9900054931641</v>
+        <v>247.4799957275391</v>
       </c>
       <c r="B37">
-        <v>228.8099975585938</v>
+        <v>248.9799957275391</v>
       </c>
       <c r="C37">
-        <v>224.3500061035156</v>
+        <v>245.3699951171875</v>
       </c>
       <c r="D37">
-        <v>228.4700012207031</v>
+        <v>247.0200042724609</v>
       </c>
       <c r="E37">
-        <v>228.4700012207031</v>
+        <v>247.0200042724609</v>
       </c>
       <c r="F37">
-        <v>10162400</v>
+        <v>11197400</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>226.2400054931641</v>
+        <v>253</v>
       </c>
       <c r="B38">
-        <v>228.2599945068359</v>
+        <v>255.6399993896484</v>
       </c>
       <c r="C38">
-        <v>223.5800018310547</v>
+        <v>251.5200042724609</v>
       </c>
       <c r="D38">
-        <v>227.9799957275391</v>
+        <v>254.7299957275391</v>
       </c>
       <c r="E38">
-        <v>227.9799957275391</v>
+        <v>254.7299957275391</v>
       </c>
       <c r="F38">
-        <v>9559300</v>
+        <v>13562800</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>227.25</v>
+        <v>255.6000061035156</v>
       </c>
       <c r="B39">
-        <v>232.2700042724609</v>
+        <v>258.3999938964844</v>
       </c>
       <c r="C39">
-        <v>226.4299926757812</v>
+        <v>254.6199951171875</v>
       </c>
       <c r="D39">
-        <v>227.5500030517578</v>
+        <v>255.6199951171875</v>
       </c>
       <c r="E39">
-        <v>227.5500030517578</v>
+        <v>255.6199951171875</v>
       </c>
       <c r="F39">
-        <v>10081100</v>
+        <v>10820400</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>223.1799926757812</v>
+        <v>252.9799957275391</v>
       </c>
       <c r="B40">
-        <v>225.1199951171875</v>
+        <v>254.8000030517578</v>
       </c>
       <c r="C40">
-        <v>220.2799987792969</v>
+        <v>249.6900024414062</v>
       </c>
       <c r="D40">
-        <v>224.4199981689453</v>
+        <v>250.3200073242188</v>
       </c>
       <c r="E40">
-        <v>224.4199981689453</v>
+        <v>250.3200073242188</v>
       </c>
       <c r="F40">
-        <v>13162700</v>
+        <v>10402000</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>225.1300048828125</v>
+        <v>251.5099945068359</v>
       </c>
       <c r="B41">
-        <v>228.4400024414062</v>
+        <v>251.8000030517578</v>
       </c>
       <c r="C41">
-        <v>223.7700042724609</v>
+        <v>248.4900054931641</v>
       </c>
       <c r="D41">
-        <v>227.6499938964844</v>
+        <v>249.9199981689453</v>
       </c>
       <c r="E41">
-        <v>227.6499938964844</v>
+        <v>249.9199981689453</v>
       </c>
       <c r="F41">
-        <v>9218900</v>
+        <v>8799000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>232.8999938964844</v>
+        <v>251.5</v>
       </c>
       <c r="B42">
-        <v>236.3000030517578</v>
+        <v>253.1999969482422</v>
       </c>
       <c r="C42">
-        <v>231.3899993896484</v>
+        <v>248.8099975585938</v>
       </c>
       <c r="D42">
-        <v>234.8200073242188</v>
+        <v>252.6600036621094</v>
       </c>
       <c r="E42">
-        <v>234.8200073242188</v>
+        <v>252.6600036621094</v>
       </c>
       <c r="F42">
-        <v>16579000</v>
+        <v>10606000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>235.1399993896484</v>
+        <v>256.260009765625</v>
       </c>
       <c r="B43">
-        <v>238.5</v>
+        <v>256.3099975585938</v>
       </c>
       <c r="C43">
-        <v>232.6000061035156</v>
+        <v>250</v>
       </c>
       <c r="D43">
-        <v>237.4400024414062</v>
+        <v>252.7599945068359</v>
       </c>
       <c r="E43">
-        <v>237.4400024414062</v>
+        <v>252.7599945068359</v>
       </c>
       <c r="F43">
-        <v>10106000</v>
+        <v>15113900</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>240</v>
+        <v>251.1999969482422</v>
       </c>
       <c r="B44">
-        <v>243.7799987792969</v>
+        <v>253.1699981689453</v>
       </c>
       <c r="C44">
-        <v>239.2299957275391</v>
+        <v>247.9100036621094</v>
       </c>
       <c r="D44">
-        <v>240.7400054931641</v>
+        <v>248.0599975585938</v>
       </c>
       <c r="E44">
-        <v>240.7400054931641</v>
+        <v>248.0599975585938</v>
       </c>
       <c r="F44">
-        <v>12908000</v>
+        <v>10693200</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>241.6999969482422</v>
+        <v>251.7200012207031</v>
       </c>
       <c r="B45">
-        <v>242.4900054931641</v>
+        <v>255.1399993896484</v>
       </c>
       <c r="C45">
-        <v>239.8699951171875</v>
+        <v>248.1000061035156</v>
       </c>
       <c r="D45">
-        <v>241.3699951171875</v>
+        <v>248.3399963378906</v>
       </c>
       <c r="E45">
-        <v>241.3699951171875</v>
+        <v>248.3399963378906</v>
       </c>
       <c r="F45">
-        <v>7240200</v>
+        <v>14519200</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>248.1100006103516</v>
+        <v>250.3500061035156</v>
       </c>
       <c r="B46">
-        <v>252.6000061035156</v>
+        <v>251.1199951171875</v>
       </c>
       <c r="C46">
-        <v>247.1900024414062</v>
+        <v>245.7799987792969</v>
       </c>
       <c r="D46">
-        <v>250.6999969482422</v>
+        <v>247.2799987792969</v>
       </c>
       <c r="E46">
-        <v>250.6999969482422</v>
+        <v>247.2799987792969</v>
       </c>
       <c r="F46">
-        <v>18404400</v>
+        <v>9934200</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>247.4799957275391</v>
+        <v>246.4400024414062</v>
       </c>
       <c r="B47">
-        <v>248.9799957275391</v>
+        <v>249.1999969482422</v>
       </c>
       <c r="C47">
-        <v>245.3699951171875</v>
+        <v>244.3999938964844</v>
       </c>
       <c r="D47">
-        <v>247.0200042724609</v>
+        <v>245.1399993896484</v>
       </c>
       <c r="E47">
-        <v>247.0200042724609</v>
+        <v>245.1399993896484</v>
       </c>
       <c r="F47">
-        <v>11197400</v>
+        <v>9344400</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>253</v>
+        <v>245.3600006103516</v>
       </c>
       <c r="B48">
-        <v>255.6399993896484</v>
+        <v>248.5099945068359</v>
       </c>
       <c r="C48">
-        <v>251.5200042724609</v>
+        <v>244.9400024414062</v>
       </c>
       <c r="D48">
-        <v>254.7299957275391</v>
+        <v>246.5399932861328</v>
       </c>
       <c r="E48">
-        <v>254.7299957275391</v>
+        <v>246.5399932861328</v>
       </c>
       <c r="F48">
-        <v>13562800</v>
+        <v>10630900</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>255.6000061035156</v>
+        <v>245.25</v>
       </c>
       <c r="B49">
-        <v>258.3999938964844</v>
+        <v>246.0599975585938</v>
       </c>
       <c r="C49">
-        <v>254.6199951171875</v>
+        <v>241.5500030517578</v>
       </c>
       <c r="D49">
-        <v>255.6199951171875</v>
+        <v>242.2700042724609</v>
       </c>
       <c r="E49">
-        <v>255.6199951171875</v>
+        <v>242.2700042724609</v>
       </c>
       <c r="F49">
-        <v>10820400</v>
+        <v>10529200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>252.9799957275391</v>
+        <v>241.9600067138672</v>
       </c>
       <c r="B50">
-        <v>254.8000030517578</v>
+        <v>243.5</v>
       </c>
       <c r="C50">
-        <v>249.6900024414062</v>
+        <v>237.3300018310547</v>
       </c>
       <c r="D50">
-        <v>250.3200073242188</v>
+        <v>239.2200012207031</v>
       </c>
       <c r="E50">
-        <v>250.3200073242188</v>
+        <v>239.2200012207031</v>
       </c>
       <c r="F50">
-        <v>10402000</v>
+        <v>10774400</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>251.5099945068359</v>
+        <v>237.7899932861328</v>
       </c>
       <c r="B51">
-        <v>251.8000030517578</v>
+        <v>239.3099975585938</v>
       </c>
       <c r="C51">
-        <v>248.4900054931641</v>
+        <v>235.8000030517578</v>
       </c>
       <c r="D51">
-        <v>249.9199981689453</v>
+        <v>237.3500061035156</v>
       </c>
       <c r="E51">
-        <v>249.9199981689453</v>
+        <v>237.3500061035156</v>
       </c>
       <c r="F51">
-        <v>8799000</v>
+        <v>11965000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>251.5</v>
+        <v>238.6600036621094</v>
       </c>
       <c r="B52">
-        <v>253.1999969482422</v>
+        <v>245.6199951171875</v>
       </c>
       <c r="C52">
-        <v>248.8099975585938</v>
+        <v>237.25</v>
       </c>
       <c r="D52">
-        <v>252.6600036621094</v>
+        <v>245.2799987792969</v>
       </c>
       <c r="E52">
-        <v>252.6600036621094</v>
+        <v>245.2799987792969</v>
       </c>
       <c r="F52">
-        <v>10606000</v>
+        <v>15301800</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>256.260009765625</v>
+        <v>244.5</v>
       </c>
       <c r="B53">
-        <v>256.3099975585938</v>
+        <v>244.6300048828125</v>
       </c>
       <c r="C53">
-        <v>250</v>
+        <v>241.0800018310547</v>
       </c>
       <c r="D53">
-        <v>252.7599945068359</v>
+        <v>243.7799987792969</v>
       </c>
       <c r="E53">
-        <v>252.7599945068359</v>
+        <v>243.7799987792969</v>
       </c>
       <c r="F53">
-        <v>15113900</v>
+        <v>10042500</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>251.1999969482422</v>
+        <v>244.8000030517578</v>
       </c>
       <c r="B54">
-        <v>253.1699981689453</v>
+        <v>246.8699951171875</v>
       </c>
       <c r="C54">
-        <v>247.9100036621094</v>
+        <v>243.1699981689453</v>
       </c>
       <c r="D54">
-        <v>248.0599975585938</v>
+        <v>243.5700073242188</v>
       </c>
       <c r="E54">
-        <v>248.0599975585938</v>
+        <v>243.5700073242188</v>
       </c>
       <c r="F54">
-        <v>10693200</v>
+        <v>9874700</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>251.7200012207031</v>
+        <v>245.1999969482422</v>
       </c>
       <c r="B55">
-        <v>255.1399993896484</v>
+        <v>250.7400054931641</v>
       </c>
       <c r="C55">
-        <v>248.1000061035156</v>
+        <v>243.6999969482422</v>
       </c>
       <c r="D55">
-        <v>248.3399963378906</v>
+        <v>250.5700073242188</v>
       </c>
       <c r="E55">
-        <v>248.3399963378906</v>
+        <v>250.5700073242188</v>
       </c>
       <c r="F55">
-        <v>14519200</v>
+        <v>13755600</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>250.3500061035156</v>
+        <v>250.75</v>
       </c>
       <c r="B56">
-        <v>251.1199951171875</v>
+        <v>252.3000030517578</v>
       </c>
       <c r="C56">
-        <v>245.7799987792969</v>
+        <v>248.25</v>
       </c>
       <c r="D56">
-        <v>247.2799987792969</v>
+        <v>248.3800048828125</v>
       </c>
       <c r="E56">
-        <v>247.2799987792969</v>
+        <v>248.3800048828125</v>
       </c>
       <c r="F56">
-        <v>9934200</v>
+        <v>9625800</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>246.4400024414062</v>
+        <v>244.7299957275391</v>
       </c>
       <c r="B57">
-        <v>249.1999969482422</v>
+        <v>245.0800018310547</v>
       </c>
       <c r="C57">
-        <v>244.3999938964844</v>
+        <v>238.8800048828125</v>
       </c>
       <c r="D57">
-        <v>245.1399993896484</v>
+        <v>239.9600067138672</v>
       </c>
       <c r="E57">
-        <v>245.1399993896484</v>
+        <v>239.9600067138672</v>
       </c>
       <c r="F57">
-        <v>9344400</v>
+        <v>18152000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>245.3600006103516</v>
+        <v>243.7400054931641</v>
       </c>
       <c r="B58">
-        <v>248.5099945068359</v>
+        <v>244.3699951171875</v>
       </c>
       <c r="C58">
-        <v>244.9400024414062</v>
+        <v>235.6600036621094</v>
       </c>
       <c r="D58">
-        <v>246.5399932861328</v>
+        <v>235.7599945068359</v>
       </c>
       <c r="E58">
-        <v>246.5399932861328</v>
+        <v>235.7599945068359</v>
       </c>
       <c r="F58">
-        <v>10630900</v>
+        <v>16743900</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>245.25</v>
+        <v>236.2400054931641</v>
       </c>
       <c r="B59">
-        <v>246.0599975585938</v>
+        <v>241.1699981689453</v>
       </c>
       <c r="C59">
-        <v>241.5500030517578</v>
+        <v>236</v>
       </c>
       <c r="D59">
-        <v>242.2700042724609</v>
+        <v>239.5599975585938</v>
       </c>
       <c r="E59">
-        <v>242.2700042724609</v>
+        <v>239.5599975585938</v>
       </c>
       <c r="F59">
-        <v>10529200</v>
+        <v>12089100</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>241.9600067138672</v>
+        <v>240.3600006103516</v>
       </c>
       <c r="B60">
-        <v>243.5</v>
+        <v>241.8000030517578</v>
       </c>
       <c r="C60">
-        <v>237.3300018310547</v>
+        <v>238.6100006103516</v>
       </c>
       <c r="D60">
-        <v>239.2200012207031</v>
+        <v>239.7299957275391</v>
       </c>
       <c r="E60">
-        <v>239.2200012207031</v>
+        <v>239.7299957275391</v>
       </c>
       <c r="F60">
-        <v>10774400</v>
+        <v>9516200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>237.7899932861328</v>
+        <v>239.5500030517578</v>
       </c>
       <c r="B61">
-        <v>239.3099975585938</v>
+        <v>240.1100006103516</v>
       </c>
       <c r="C61">
-        <v>235.8000030517578</v>
+        <v>233.4700012207031</v>
       </c>
       <c r="D61">
-        <v>237.3500061035156</v>
+        <v>236.6799926757812</v>
       </c>
       <c r="E61">
-        <v>237.3500061035156</v>
+        <v>236.6799926757812</v>
       </c>
       <c r="F61">
-        <v>11965000</v>
+        <v>15706600</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>238.6600036621094</v>
+        <v>236.8500061035156</v>
       </c>
       <c r="B62">
-        <v>245.6199951171875</v>
+        <v>237.1699981689453</v>
       </c>
       <c r="C62">
-        <v>237.25</v>
+        <v>233.4700012207031</v>
       </c>
       <c r="D62">
-        <v>245.2799987792969</v>
+        <v>236.1399993896484</v>
       </c>
       <c r="E62">
-        <v>245.2799987792969</v>
+        <v>236.1399993896484</v>
       </c>
       <c r="F62">
-        <v>15301800</v>
+        <v>11045800</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>244.5</v>
+        <v>235.1699981689453</v>
       </c>
       <c r="B63">
-        <v>244.6300048828125</v>
+        <v>238.0099945068359</v>
       </c>
       <c r="C63">
-        <v>241.0800018310547</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="D63">
-        <v>243.7799987792969</v>
+        <v>231.7799987792969</v>
       </c>
       <c r="E63">
-        <v>243.7799987792969</v>
+        <v>231.7799987792969</v>
       </c>
       <c r="F63">
-        <v>10042500</v>
+        <v>11497000</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>244.8000030517578</v>
+        <v>227.4799957275391</v>
       </c>
       <c r="B64">
-        <v>246.8699951171875</v>
+        <v>237.4700012207031</v>
       </c>
       <c r="C64">
-        <v>243.1699981689453</v>
+        <v>226.1600036621094</v>
       </c>
       <c r="D64">
-        <v>243.5700073242188</v>
+        <v>236.7700042724609</v>
       </c>
       <c r="E64">
-        <v>243.5700073242188</v>
+        <v>236.7700042724609</v>
       </c>
       <c r="F64">
-        <v>9874700</v>
+        <v>17964300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>245.1999969482422</v>
+        <v>237.7700042724609</v>
       </c>
       <c r="B65">
-        <v>250.7400054931641</v>
+        <v>240.3800048828125</v>
       </c>
       <c r="C65">
-        <v>243.6999969482422</v>
+        <v>236.2200012207031</v>
       </c>
       <c r="D65">
-        <v>250.5700073242188</v>
+        <v>239.5899963378906</v>
       </c>
       <c r="E65">
-        <v>250.5700073242188</v>
+        <v>239.5899963378906</v>
       </c>
       <c r="F65">
-        <v>13755600</v>
+        <v>12385400</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>250.75</v>
+        <v>237.9900054931641</v>
       </c>
       <c r="B66">
-        <v>252.3000030517578</v>
+        <v>240.7700042724609</v>
       </c>
       <c r="C66">
-        <v>248.25</v>
+        <v>236.4600067138672</v>
       </c>
       <c r="D66">
-        <v>248.3800048828125</v>
+        <v>238.2899932861328</v>
       </c>
       <c r="E66">
-        <v>248.3800048828125</v>
+        <v>238.2899932861328</v>
       </c>
       <c r="F66">
-        <v>9625800</v>
+        <v>9071500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>244.7299957275391</v>
+        <v>232.2700042724609</v>
       </c>
       <c r="B67">
-        <v>245.0800018310547</v>
+        <v>234.4900054931641</v>
       </c>
       <c r="C67">
-        <v>238.8800048828125</v>
+        <v>228.1600036621094</v>
       </c>
       <c r="D67">
-        <v>239.9600067138672</v>
+        <v>228.1999969482422</v>
       </c>
       <c r="E67">
-        <v>239.9600067138672</v>
+        <v>228.1999969482422</v>
       </c>
       <c r="F67">
-        <v>18152000</v>
+        <v>21029500</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>243.7400054931641</v>
+        <v>229.0200042724609</v>
       </c>
       <c r="B68">
-        <v>244.3699951171875</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="C68">
-        <v>235.6600036621094</v>
+        <v>224.3000030517578</v>
       </c>
       <c r="D68">
-        <v>235.7599945068359</v>
+        <v>224.4499969482422</v>
       </c>
       <c r="E68">
-        <v>235.7599945068359</v>
+        <v>224.4499969482422</v>
       </c>
       <c r="F68">
-        <v>16743900</v>
+        <v>12137000</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>236.2400054931641</v>
+        <v>222.8800048828125</v>
       </c>
       <c r="B69">
-        <v>241.1699981689453</v>
+        <v>226.6699981689453</v>
       </c>
       <c r="C69">
-        <v>236</v>
+        <v>220.8000030517578</v>
       </c>
       <c r="D69">
-        <v>239.5599975585938</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="E69">
-        <v>239.5599975585938</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="F69">
-        <v>12089100</v>
+        <v>12228600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>240.3600006103516</v>
+        <v>223.1100006103516</v>
       </c>
       <c r="B70">
-        <v>241.8000030517578</v>
+        <v>224</v>
       </c>
       <c r="C70">
-        <v>238.6100006103516</v>
+        <v>217.0299987792969</v>
       </c>
       <c r="D70">
-        <v>239.7299957275391</v>
+        <v>217.7400054931641</v>
       </c>
       <c r="E70">
-        <v>239.7299957275391</v>
+        <v>217.7400054931641</v>
       </c>
       <c r="F70">
-        <v>9516200</v>
+        <v>12413400</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>239.5500030517578</v>
+        <v>211.1799926757812</v>
       </c>
       <c r="B71">
-        <v>240.1100006103516</v>
+        <v>211.5500030517578</v>
       </c>
       <c r="C71">
-        <v>233.4700012207031</v>
+        <v>204.8000030517578</v>
       </c>
       <c r="D71">
-        <v>236.6799926757812</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="E71">
-        <v>236.6799926757812</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="F71">
-        <v>15706600</v>
+        <v>24123600</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>236.8500061035156</v>
+        <v>208.1000061035156</v>
       </c>
       <c r="B72">
-        <v>237.1699981689453</v>
+        <v>217.3699951171875</v>
       </c>
       <c r="C72">
-        <v>233.4700012207031</v>
+        <v>206.6199951171875</v>
       </c>
       <c r="D72">
-        <v>236.1399993896484</v>
+        <v>217.1499938964844</v>
       </c>
       <c r="E72">
-        <v>236.1399993896484</v>
+        <v>217.1499938964844</v>
       </c>
       <c r="F72">
-        <v>11045800</v>
+        <v>17027300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>235.1699981689453</v>
+        <v>219.5</v>
       </c>
       <c r="B73">
-        <v>238.0099945068359</v>
+        <v>224.0899963378906</v>
       </c>
       <c r="C73">
-        <v>230.5200042724609</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D73">
-        <v>231.7799987792969</v>
+        <v>222.5399932861328</v>
       </c>
       <c r="E73">
-        <v>231.7799987792969</v>
+        <v>222.5399932861328</v>
       </c>
       <c r="F73">
-        <v>11497000</v>
+        <v>11437600</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>227.4799957275391</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="B74">
-        <v>237.4700012207031</v>
+        <v>222.25</v>
       </c>
       <c r="C74">
-        <v>226.1600036621094</v>
+        <v>218.3099975585938</v>
       </c>
       <c r="D74">
-        <v>236.7700042724609</v>
+        <v>220.8699951171875</v>
       </c>
       <c r="E74">
-        <v>236.7700042724609</v>
+        <v>220.8699951171875</v>
       </c>
       <c r="F74">
-        <v>17964300</v>
+        <v>9768900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>237.7700042724609</v>
+        <v>222.9700012207031</v>
       </c>
       <c r="B75">
-        <v>240.3800048828125</v>
+        <v>224.6300048828125</v>
       </c>
       <c r="C75">
-        <v>236.2200012207031</v>
+        <v>220.9400024414062</v>
       </c>
       <c r="D75">
-        <v>239.5899963378906</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E75">
-        <v>239.5899963378906</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="F75">
-        <v>12385400</v>
+        <v>9379500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>237.9900054931641</v>
+        <v>220</v>
       </c>
       <c r="B76">
-        <v>240.7700042724609</v>
+        <v>226.1199951171875</v>
       </c>
       <c r="C76">
-        <v>236.4600067138672</v>
+        <v>219.8899993896484</v>
       </c>
       <c r="D76">
-        <v>238.2899932861328</v>
+        <v>225.8500061035156</v>
       </c>
       <c r="E76">
-        <v>238.2899932861328</v>
+        <v>225.8500061035156</v>
       </c>
       <c r="F76">
-        <v>9071500</v>
+        <v>8933200</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>232.2700042724609</v>
+        <v>223.1699981689453</v>
       </c>
       <c r="B77">
-        <v>234.4900054931641</v>
+        <v>225.6999969482422</v>
       </c>
       <c r="C77">
-        <v>228.1600036621094</v>
+        <v>220.4199981689453</v>
       </c>
       <c r="D77">
-        <v>228.1999969482422</v>
+        <v>222.2700042724609</v>
       </c>
       <c r="E77">
-        <v>228.1999969482422</v>
+        <v>222.2700042724609</v>
       </c>
       <c r="F77">
-        <v>21029500</v>
+        <v>8784200</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>229.0200042724609</v>
+        <v>234.0500030517578</v>
       </c>
       <c r="B78">
-        <v>230.5200042724609</v>
+        <v>237.4900054931641</v>
       </c>
       <c r="C78">
-        <v>224.3000030517578</v>
+        <v>231.3300018310547</v>
       </c>
       <c r="D78">
-        <v>224.4499969482422</v>
+        <v>231.5700073242188</v>
       </c>
       <c r="E78">
-        <v>224.4499969482422</v>
+        <v>231.5700073242188</v>
       </c>
       <c r="F78">
-        <v>12137000</v>
+        <v>19330500</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>222.8800048828125</v>
+        <v>233.6900024414062</v>
       </c>
       <c r="B79">
-        <v>226.6699981689453</v>
+        <v>234.8200073242188</v>
       </c>
       <c r="C79">
-        <v>220.8000030517578</v>
+        <v>231.1199951171875</v>
       </c>
       <c r="D79">
-        <v>222.7599945068359</v>
+        <v>231.6300048828125</v>
       </c>
       <c r="E79">
-        <v>222.7599945068359</v>
+        <v>231.6300048828125</v>
       </c>
       <c r="F79">
-        <v>12228600</v>
+        <v>8667900</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>223.1100006103516</v>
+        <v>229.3899993896484</v>
       </c>
       <c r="B80">
-        <v>224</v>
+        <v>231.1799926757812</v>
       </c>
       <c r="C80">
-        <v>217.0299987792969</v>
+        <v>225.3999938964844</v>
       </c>
       <c r="D80">
-        <v>217.7400054931641</v>
+        <v>226.4799957275391</v>
       </c>
       <c r="E80">
-        <v>217.7400054931641</v>
+        <v>226.4799957275391</v>
       </c>
       <c r="F80">
-        <v>12413400</v>
+        <v>9923300</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>211.1799926757812</v>
+        <v>227.1900024414062</v>
       </c>
       <c r="B81">
-        <v>211.5500030517578</v>
+        <v>230.4700012207031</v>
       </c>
       <c r="C81">
-        <v>204.8000030517578</v>
+        <v>224.8699951171875</v>
       </c>
       <c r="D81">
-        <v>206.9900054931641</v>
+        <v>225.3399963378906</v>
       </c>
       <c r="E81">
-        <v>206.9900054931641</v>
+        <v>225.3399963378906</v>
       </c>
       <c r="F81">
-        <v>24123600</v>
+        <v>8889100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>208.1000061035156</v>
+        <v>225.8999938964844</v>
       </c>
       <c r="B82">
-        <v>217.3699951171875</v>
+        <v>229.1000061035156</v>
       </c>
       <c r="C82">
-        <v>206.6199951171875</v>
+        <v>221.3000030517578</v>
       </c>
       <c r="D82">
-        <v>217.1499938964844</v>
+        <v>229.0899963378906</v>
       </c>
       <c r="E82">
-        <v>217.1499938964844</v>
+        <v>229.0899963378906</v>
       </c>
       <c r="F82">
-        <v>17027300</v>
+        <v>7326400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>219.5</v>
+        <v>226.4199981689453</v>
       </c>
       <c r="B83">
-        <v>224.0899963378906</v>
+        <v>232.3500061035156</v>
       </c>
       <c r="C83">
-        <v>218.8999938964844</v>
+        <v>225.3300018310547</v>
       </c>
       <c r="D83">
-        <v>222.5399932861328</v>
+        <v>226.6300048828125</v>
       </c>
       <c r="E83">
-        <v>222.5399932861328</v>
+        <v>226.6300048828125</v>
       </c>
       <c r="F83">
-        <v>11437600</v>
+        <v>9756300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>221.5200042724609</v>
+        <v>226.6799926757812</v>
       </c>
       <c r="B84">
-        <v>222.25</v>
+        <v>231.5399932861328</v>
       </c>
       <c r="C84">
-        <v>218.3099975585938</v>
+        <v>226.4900054931641</v>
       </c>
       <c r="D84">
-        <v>220.8699951171875</v>
+        <v>229.9400024414062</v>
       </c>
       <c r="E84">
-        <v>220.8699951171875</v>
+        <v>229.9400024414062</v>
       </c>
       <c r="F84">
-        <v>9768900</v>
+        <v>8362600</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>222.9700012207031</v>
+        <v>231.5500030517578</v>
       </c>
       <c r="B85">
-        <v>224.6300048828125</v>
+        <v>233.5700073242188</v>
       </c>
       <c r="C85">
-        <v>220.9400024414062</v>
+        <v>230.4199981689453</v>
       </c>
       <c r="D85">
-        <v>221.5200042724609</v>
+        <v>231.3300018310547</v>
       </c>
       <c r="E85">
-        <v>221.5200042724609</v>
+        <v>231.3300018310547</v>
       </c>
       <c r="F85">
-        <v>9379500</v>
+        <v>6058300</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B86">
-        <v>226.1199951171875</v>
+        <v>233.5700073242188</v>
       </c>
       <c r="C86">
-        <v>219.8899993896484</v>
+        <v>226.8899993896484</v>
       </c>
       <c r="D86">
-        <v>225.8500061035156</v>
+        <v>232.2700042724609</v>
       </c>
       <c r="E86">
-        <v>225.8500061035156</v>
+        <v>232.2700042724609</v>
       </c>
       <c r="F86">
-        <v>8933200</v>
+        <v>8358600</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>223.1699981689453</v>
+        <v>231.9700012207031</v>
       </c>
       <c r="B87">
-        <v>225.6999969482422</v>
+        <v>236.8500061035156</v>
       </c>
       <c r="C87">
-        <v>220.4199981689453</v>
+        <v>231.6199951171875</v>
       </c>
       <c r="D87">
-        <v>222.2700042724609</v>
+        <v>235.7799987792969</v>
       </c>
       <c r="E87">
-        <v>222.2700042724609</v>
+        <v>235.7799987792969</v>
       </c>
       <c r="F87">
-        <v>8784200</v>
+        <v>9603500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>234.0500030517578</v>
+        <v>236.6100006103516</v>
       </c>
       <c r="B88">
-        <v>237.4900054931641</v>
+        <v>239.5899963378906</v>
       </c>
       <c r="C88">
-        <v>231.3300018310547</v>
+        <v>234.5800018310547</v>
       </c>
       <c r="D88">
-        <v>231.5700073242188</v>
+        <v>239.4900054931641</v>
       </c>
       <c r="E88">
-        <v>231.5700073242188</v>
+        <v>239.4900054931641</v>
       </c>
       <c r="F88">
-        <v>19330500</v>
+        <v>9664000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>233.6900024414062</v>
+        <v>240</v>
       </c>
       <c r="B89">
-        <v>234.8200073242188</v>
+        <v>241.1499938964844</v>
       </c>
       <c r="C89">
-        <v>231.1199951171875</v>
+        <v>236.5099945068359</v>
       </c>
       <c r="D89">
-        <v>231.6300048828125</v>
+        <v>238.1799926757812</v>
       </c>
       <c r="E89">
-        <v>231.6300048828125</v>
+        <v>238.1799926757812</v>
       </c>
       <c r="F89">
-        <v>8667900</v>
+        <v>6810000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>229.3899993896484</v>
+        <v>238.0099945068359</v>
       </c>
       <c r="B90">
-        <v>231.1799926757812</v>
+        <v>239.6900024414062</v>
       </c>
       <c r="C90">
-        <v>225.3999938964844</v>
+        <v>234.2799987792969</v>
       </c>
       <c r="D90">
-        <v>226.4799957275391</v>
+        <v>234.4600067138672</v>
       </c>
       <c r="E90">
-        <v>226.4799957275391</v>
+        <v>234.4600067138672</v>
       </c>
       <c r="F90">
-        <v>9923300</v>
+        <v>6379600</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>227.1900024414062</v>
+        <v>231.8999938964844</v>
       </c>
       <c r="B91">
-        <v>230.4700012207031</v>
+        <v>232.0299987792969</v>
       </c>
       <c r="C91">
-        <v>224.8699951171875</v>
+        <v>227.1399993896484</v>
       </c>
       <c r="D91">
-        <v>225.3399963378906</v>
+        <v>229.0599975585938</v>
       </c>
       <c r="E91">
-        <v>225.3399963378906</v>
+        <v>229.0599975585938</v>
       </c>
       <c r="F91">
-        <v>8889100</v>
+        <v>7622000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>225.8999938964844</v>
+        <v>226.1999969482422</v>
       </c>
       <c r="B92">
-        <v>229.1000061035156</v>
+        <v>226.2400054931641</v>
       </c>
       <c r="C92">
-        <v>221.3000030517578</v>
+        <v>219.8000030517578</v>
       </c>
       <c r="D92">
-        <v>229.0899963378906</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="E92">
-        <v>229.0899963378906</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="F92">
-        <v>7326400</v>
+        <v>13124000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>226.4199981689453</v>
+        <v>221.7299957275391</v>
       </c>
       <c r="B93">
-        <v>232.3500061035156</v>
+        <v>223.6499938964844</v>
       </c>
       <c r="C93">
-        <v>225.3300018310547</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D93">
-        <v>226.6300048828125</v>
+        <v>219</v>
       </c>
       <c r="E93">
-        <v>226.6300048828125</v>
+        <v>219</v>
       </c>
       <c r="F93">
-        <v>9756300</v>
+        <v>9000900</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>226.6799926757812</v>
+        <v>216.3000030517578</v>
       </c>
       <c r="B94">
-        <v>231.5399932861328</v>
+        <v>218.3000030517578</v>
       </c>
       <c r="C94">
-        <v>226.4900054931641</v>
+        <v>211.7299957275391</v>
       </c>
       <c r="D94">
-        <v>229.9400024414062</v>
+        <v>212.1600036621094</v>
       </c>
       <c r="E94">
-        <v>229.9400024414062</v>
+        <v>212.1600036621094</v>
       </c>
       <c r="F94">
-        <v>8362600</v>
+        <v>11404400</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>231.5500030517578</v>
+        <v>212.3099975585938</v>
       </c>
       <c r="B95">
-        <v>233.5700073242188</v>
+        <v>214.7400054931641</v>
       </c>
       <c r="C95">
-        <v>230.4199981689453</v>
+        <v>210.9400024414062</v>
       </c>
       <c r="D95">
-        <v>231.3300018310547</v>
+        <v>212.6699981689453</v>
       </c>
       <c r="E95">
-        <v>231.3300018310547</v>
+        <v>212.6699981689453</v>
       </c>
       <c r="F95">
-        <v>6058300</v>
+        <v>9324800</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>229</v>
+        <v>215.8300018310547</v>
       </c>
       <c r="B96">
-        <v>233.5700073242188</v>
+        <v>220.1799926757812</v>
       </c>
       <c r="C96">
-        <v>226.8899993896484</v>
+        <v>215.3800048828125</v>
       </c>
       <c r="D96">
-        <v>232.2700042724609</v>
+        <v>219.3999938964844</v>
       </c>
       <c r="E96">
-        <v>232.2700042724609</v>
+        <v>219.3999938964844</v>
       </c>
       <c r="F96">
-        <v>8358600</v>
+        <v>10392100</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>231.9700012207031</v>
+        <v>220.1100006103516</v>
       </c>
       <c r="B97">
-        <v>236.8500061035156</v>
+        <v>223.1000061035156</v>
       </c>
       <c r="C97">
-        <v>231.6199951171875</v>
+        <v>219.8000030517578</v>
       </c>
       <c r="D97">
-        <v>235.7799987792969</v>
+        <v>221.4299926757812</v>
       </c>
       <c r="E97">
-        <v>235.7799987792969</v>
+        <v>221.4299926757812</v>
       </c>
       <c r="F97">
-        <v>9603500</v>
+        <v>8942600</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>236.6100006103516</v>
+        <v>221.5</v>
       </c>
       <c r="B98">
-        <v>239.5899963378906</v>
+        <v>222.3000030517578</v>
       </c>
       <c r="C98">
-        <v>234.5800018310547</v>
+        <v>219.1000061035156</v>
       </c>
       <c r="D98">
-        <v>239.4900054931641</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="E98">
-        <v>239.4900054931641</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="F98">
-        <v>9664000</v>
+        <v>6528900</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>240</v>
+        <v>221.4100036621094</v>
       </c>
       <c r="B99">
-        <v>241.1499938964844</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="C99">
-        <v>236.5099945068359</v>
+        <v>215.9100036621094</v>
       </c>
       <c r="D99">
-        <v>238.1799926757812</v>
+        <v>216.5</v>
       </c>
       <c r="E99">
-        <v>238.1799926757812</v>
+        <v>216.5</v>
       </c>
       <c r="F99">
-        <v>6810000</v>
+        <v>8341400</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>238.0099945068359</v>
+        <v>217.4700012207031</v>
       </c>
       <c r="B100">
-        <v>239.6900024414062</v>
+        <v>222.4299926757812</v>
       </c>
       <c r="C100">
-        <v>234.2799987792969</v>
+        <v>216.8600006103516</v>
       </c>
       <c r="D100">
-        <v>234.4600067138672</v>
+        <v>221.75</v>
       </c>
       <c r="E100">
-        <v>234.4600067138672</v>
+        <v>221.75</v>
       </c>
       <c r="F100">
-        <v>6379600</v>
+        <v>7675300</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>231.8999938964844</v>
+        <v>222.3500061035156</v>
       </c>
       <c r="B101">
-        <v>232.0299987792969</v>
+        <v>222.3699951171875</v>
       </c>
       <c r="C101">
-        <v>227.1399993896484</v>
+        <v>217.5299987792969</v>
       </c>
       <c r="D101">
-        <v>229.0599975585938</v>
+        <v>217.6600036621094</v>
       </c>
       <c r="E101">
-        <v>229.0599975585938</v>
+        <v>217.6600036621094</v>
       </c>
       <c r="F101">
-        <v>7622000</v>
+        <v>7587800</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>226.1999969482422</v>
+        <v>217.3300018310547</v>
       </c>
       <c r="B102">
-        <v>226.2400054931641</v>
+        <v>221.3300018310547</v>
       </c>
       <c r="C102">
-        <v>219.8000030517578</v>
+        <v>217.0899963378906</v>
       </c>
       <c r="D102">
-        <v>222.2200012207031</v>
+        <v>219.5</v>
       </c>
       <c r="E102">
-        <v>222.2200012207031</v>
+        <v>219.5</v>
       </c>
       <c r="F102">
-        <v>13124000</v>
+        <v>6764500</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>221.7299957275391</v>
+        <v>220</v>
       </c>
       <c r="B103">
-        <v>223.6499938964844</v>
+        <v>221.7599945068359</v>
       </c>
       <c r="C103">
-        <v>218.8999938964844</v>
+        <v>217.6199951171875</v>
       </c>
       <c r="D103">
-        <v>219</v>
+        <v>218.1199951171875</v>
       </c>
       <c r="E103">
-        <v>219</v>
+        <v>218.1199951171875</v>
       </c>
       <c r="F103">
-        <v>9000900</v>
+        <v>7157400</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>216.3000030517578</v>
+        <v>218.9499969482422</v>
       </c>
       <c r="B104">
-        <v>218.3000030517578</v>
+        <v>223.8399963378906</v>
       </c>
       <c r="C104">
-        <v>211.7299957275391</v>
+        <v>218.0800018310547</v>
       </c>
       <c r="D104">
-        <v>212.1600036621094</v>
+        <v>220.8300018310547</v>
       </c>
       <c r="E104">
-        <v>212.1600036621094</v>
+        <v>220.8300018310547</v>
       </c>
       <c r="F104">
-        <v>11404400</v>
+        <v>8899500</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>212.3099975585938</v>
+        <v>219.4499969482422</v>
       </c>
       <c r="B105">
-        <v>214.7400054931641</v>
+        <v>221.1799926757812</v>
       </c>
       <c r="C105">
-        <v>210.9400024414062</v>
+        <v>217.4600067138672</v>
       </c>
       <c r="D105">
-        <v>212.6699981689453</v>
+        <v>218.1699981689453</v>
       </c>
       <c r="E105">
-        <v>212.6699981689453</v>
+        <v>218.1699981689453</v>
       </c>
       <c r="F105">
-        <v>9324800</v>
+        <v>6393500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>215.8300018310547</v>
+        <v>215.9100036621094</v>
       </c>
       <c r="B106">
-        <v>220.1799926757812</v>
+        <v>216.7100067138672</v>
       </c>
       <c r="C106">
-        <v>215.3800048828125</v>
+        <v>212.1699981689453</v>
       </c>
       <c r="D106">
-        <v>219.3999938964844</v>
+        <v>214.2400054931641</v>
       </c>
       <c r="E106">
-        <v>219.3999938964844</v>
+        <v>214.2400054931641</v>
       </c>
       <c r="F106">
-        <v>10392100</v>
+        <v>13196100</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>220.1100006103516</v>
+        <v>213.6000061035156</v>
       </c>
       <c r="B107">
-        <v>223.1000061035156</v>
+        <v>216.0800018310547</v>
       </c>
       <c r="C107">
-        <v>219.8000030517578</v>
+        <v>210.5099945068359</v>
       </c>
       <c r="D107">
-        <v>221.4299926757812</v>
+        <v>211.3800048828125</v>
       </c>
       <c r="E107">
-        <v>221.4299926757812</v>
+        <v>211.3800048828125</v>
       </c>
       <c r="F107">
-        <v>8942600</v>
+        <v>8877600</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>221.5</v>
+        <v>211.1499938964844</v>
       </c>
       <c r="B108">
-        <v>222.3000030517578</v>
+        <v>216.6100006103516</v>
       </c>
       <c r="C108">
-        <v>219.1000061035156</v>
+        <v>210.7200012207031</v>
       </c>
       <c r="D108">
-        <v>221.0299987792969</v>
+        <v>213.9400024414062</v>
       </c>
       <c r="E108">
-        <v>221.0299987792969</v>
+        <v>213.9400024414062</v>
       </c>
       <c r="F108">
-        <v>6528900</v>
+        <v>9242800</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>221.4100036621094</v>
+        <v>215.1600036621094</v>
       </c>
       <c r="B109">
-        <v>222.8999938964844</v>
+        <v>215.8899993896484</v>
       </c>
       <c r="C109">
-        <v>215.9100036621094</v>
+        <v>210.1199951171875</v>
       </c>
       <c r="D109">
-        <v>216.5</v>
+        <v>210.3000030517578</v>
       </c>
       <c r="E109">
-        <v>216.5</v>
+        <v>210.3000030517578</v>
       </c>
       <c r="F109">
-        <v>8341400</v>
+        <v>6937100</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>217.4700012207031</v>
+        <v>211.3500061035156</v>
       </c>
       <c r="B110">
-        <v>222.4299926757812</v>
+        <v>215.6399993896484</v>
       </c>
       <c r="C110">
-        <v>216.8600006103516</v>
+        <v>209.8800048828125</v>
       </c>
       <c r="D110">
-        <v>221.75</v>
+        <v>214.4799957275391</v>
       </c>
       <c r="E110">
-        <v>221.75</v>
+        <v>214.4799957275391</v>
       </c>
       <c r="F110">
-        <v>7675300</v>
+        <v>10175900</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>222.3500061035156</v>
+        <v>215.8399963378906</v>
       </c>
       <c r="B111">
-        <v>222.3699951171875</v>
+        <v>216.1100006103516</v>
       </c>
       <c r="C111">
-        <v>217.5299987792969</v>
+        <v>210.7100067138672</v>
       </c>
       <c r="D111">
-        <v>217.6600036621094</v>
+        <v>211.5700073242188</v>
       </c>
       <c r="E111">
-        <v>217.6600036621094</v>
+        <v>211.5700073242188</v>
       </c>
       <c r="F111">
-        <v>7587800</v>
+        <v>9947000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>217.3300018310547</v>
+        <v>211.7899932861328</v>
       </c>
       <c r="B112">
-        <v>221.3300018310547</v>
+        <v>214.3500061035156</v>
       </c>
       <c r="C112">
-        <v>217.0899963378906</v>
+        <v>210.3200073242188</v>
       </c>
       <c r="D112">
-        <v>219.5</v>
+        <v>214.2200012207031</v>
       </c>
       <c r="E112">
-        <v>219.5</v>
+        <v>214.2200012207031</v>
       </c>
       <c r="F112">
-        <v>6764500</v>
+        <v>7916300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>220</v>
+        <v>213.9600067138672</v>
       </c>
       <c r="B113">
-        <v>221.7599945068359</v>
+        <v>216.3099975585938</v>
       </c>
       <c r="C113">
-        <v>217.6199951171875</v>
+        <v>213.3099975585938</v>
       </c>
       <c r="D113">
-        <v>218.1199951171875</v>
+        <v>213.3600006103516</v>
       </c>
       <c r="E113">
-        <v>218.1199951171875</v>
+        <v>213.3600006103516</v>
       </c>
       <c r="F113">
-        <v>7157400</v>
+        <v>6370900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>218.9499969482422</v>
+        <v>213.1199951171875</v>
       </c>
       <c r="B114">
-        <v>223.8399963378906</v>
+        <v>215.3699951171875</v>
       </c>
       <c r="C114">
-        <v>218.0800018310547</v>
+        <v>211.9100036621094</v>
       </c>
       <c r="D114">
-        <v>220.8300018310547</v>
+        <v>213.3600006103516</v>
       </c>
       <c r="E114">
-        <v>220.8300018310547</v>
+        <v>213.3600006103516</v>
       </c>
       <c r="F114">
-        <v>8899500</v>
+        <v>7932700</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>219.4499969482422</v>
+        <v>210.8099975585938</v>
       </c>
       <c r="B115">
-        <v>221.1799926757812</v>
+        <v>212.4299926757812</v>
       </c>
       <c r="C115">
-        <v>217.4600067138672</v>
+        <v>206.5299987792969</v>
       </c>
       <c r="D115">
-        <v>218.1699981689453</v>
+        <v>209.5</v>
       </c>
       <c r="E115">
-        <v>218.1699981689453</v>
+        <v>209.5</v>
       </c>
       <c r="F115">
-        <v>6393500</v>
+        <v>10567400</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>215.9100036621094</v>
+        <v>210.25</v>
       </c>
       <c r="B116">
-        <v>216.7100067138672</v>
+        <v>211.7599945068359</v>
       </c>
       <c r="C116">
-        <v>212.1699981689453</v>
+        <v>207.7200012207031</v>
       </c>
       <c r="D116">
-        <v>214.2400054931641</v>
+        <v>208.5099945068359</v>
       </c>
       <c r="E116">
-        <v>214.2400054931641</v>
+        <v>208.5099945068359</v>
       </c>
       <c r="F116">
-        <v>13196100</v>
+        <v>7139000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>213.6000061035156</v>
+        <v>210</v>
       </c>
       <c r="B117">
-        <v>216.0800018310547</v>
+        <v>217.9900054931641</v>
       </c>
       <c r="C117">
-        <v>210.5099945068359</v>
+        <v>209.6499938964844</v>
       </c>
       <c r="D117">
-        <v>211.3800048828125</v>
+        <v>216.9799957275391</v>
       </c>
       <c r="E117">
-        <v>211.3800048828125</v>
+        <v>216.9799957275391</v>
       </c>
       <c r="F117">
-        <v>8877600</v>
+        <v>10953000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>211.1499938964844</v>
+        <v>217.8099975585938</v>
       </c>
       <c r="B118">
-        <v>216.6100006103516</v>
+        <v>222.6199951171875</v>
       </c>
       <c r="C118">
-        <v>210.7200012207031</v>
+        <v>217.1499938964844</v>
       </c>
       <c r="D118">
-        <v>213.9400024414062</v>
+        <v>221.1000061035156</v>
       </c>
       <c r="E118">
-        <v>213.9400024414062</v>
+        <v>221.1000061035156</v>
       </c>
       <c r="F118">
-        <v>9242800</v>
+        <v>9344600</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>215.1600036621094</v>
+        <v>219.1300048828125</v>
       </c>
       <c r="B119">
-        <v>215.8899993896484</v>
+        <v>222.4100036621094</v>
       </c>
       <c r="C119">
-        <v>210.1199951171875</v>
+        <v>218.6600036621094</v>
       </c>
       <c r="D119">
-        <v>210.3000030517578</v>
+        <v>221.3899993896484</v>
       </c>
       <c r="E119">
-        <v>210.3000030517578</v>
+        <v>221.3899993896484</v>
       </c>
       <c r="F119">
-        <v>6937100</v>
+        <v>6498200</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>211.3500061035156</v>
+        <v>224</v>
       </c>
       <c r="B120">
-        <v>215.6399993896484</v>
+        <v>228.6000061035156</v>
       </c>
       <c r="C120">
-        <v>209.8800048828125</v>
+        <v>223.8800048828125</v>
       </c>
       <c r="D120">
-        <v>214.4799957275391</v>
+        <v>224.1600036621094</v>
       </c>
       <c r="E120">
-        <v>214.4799957275391</v>
+        <v>224.1600036621094</v>
       </c>
       <c r="F120">
-        <v>10175900</v>
+        <v>9749200</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>215.8399963378906</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="B121">
-        <v>216.1100006103516</v>
+        <v>224.5800018310547</v>
       </c>
       <c r="C121">
-        <v>210.7100067138672</v>
+        <v>216.4199981689453</v>
       </c>
       <c r="D121">
-        <v>211.5700073242188</v>
+        <v>218.4100036621094</v>
       </c>
       <c r="E121">
-        <v>211.5700073242188</v>
+        <v>218.4100036621094</v>
       </c>
       <c r="F121">
-        <v>9947000</v>
+        <v>9639800</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>211.7899932861328</v>
+        <v>227.8000030517578</v>
       </c>
       <c r="B122">
-        <v>214.3500061035156</v>
+        <v>229.9400024414062</v>
       </c>
       <c r="C122">
-        <v>210.3200073242188</v>
+        <v>224.8600006103516</v>
       </c>
       <c r="D122">
-        <v>214.2200012207031</v>
+        <v>225.3600006103516</v>
       </c>
       <c r="E122">
-        <v>214.2200012207031</v>
+        <v>225.3600006103516</v>
       </c>
       <c r="F122">
-        <v>7916300</v>
+        <v>16808000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>213.9600067138672</v>
+        <v>226.0800018310547</v>
       </c>
       <c r="B123">
-        <v>216.3099975585938</v>
+        <v>226.1499938964844</v>
       </c>
       <c r="C123">
-        <v>213.3099975585938</v>
+        <v>219.4600067138672</v>
       </c>
       <c r="D123">
-        <v>213.3600006103516</v>
+        <v>219.9400024414062</v>
       </c>
       <c r="E123">
-        <v>213.3600006103516</v>
+        <v>219.9400024414062</v>
       </c>
       <c r="F123">
-        <v>6370900</v>
+        <v>10356200</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>213.1199951171875</v>
+        <v>222.8500061035156</v>
       </c>
       <c r="B124">
-        <v>215.3699951171875</v>
+        <v>226.7200012207031</v>
       </c>
       <c r="C124">
-        <v>211.9100036621094</v>
+        <v>220.6000061035156</v>
       </c>
       <c r="D124">
-        <v>213.3600006103516</v>
+        <v>226</v>
       </c>
       <c r="E124">
-        <v>213.3600006103516</v>
+        <v>226</v>
       </c>
       <c r="F124">
-        <v>7932700</v>
+        <v>9113600</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>210.8099975585938</v>
+        <v>225.6799926757812</v>
       </c>
       <c r="B125">
-        <v>212.4299926757812</v>
+        <v>227.9700012207031</v>
       </c>
       <c r="C125">
-        <v>206.5299987792969</v>
+        <v>222</v>
       </c>
       <c r="D125">
-        <v>209.5</v>
+        <v>223.7899932861328</v>
       </c>
       <c r="E125">
-        <v>209.5</v>
+        <v>223.7899932861328</v>
       </c>
       <c r="F125">
-        <v>10567400</v>
+        <v>6946100</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>210.25</v>
+        <v>224.2700042724609</v>
       </c>
       <c r="B126">
-        <v>211.7599945068359</v>
+        <v>226.4499969482422</v>
       </c>
       <c r="C126">
-        <v>207.7200012207031</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="D126">
-        <v>208.5099945068359</v>
+        <v>224.4199981689453</v>
       </c>
       <c r="E126">
-        <v>208.5099945068359</v>
+        <v>224.4199981689453</v>
       </c>
       <c r="F126">
-        <v>7139000</v>
+        <v>5687300</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>210</v>
+        <v>221.0800018310547</v>
       </c>
       <c r="B127">
-        <v>217.9900054931641</v>
+        <v>225.0700073242188</v>
       </c>
       <c r="C127">
-        <v>209.6499938964844</v>
+        <v>219.1999969482422</v>
       </c>
       <c r="D127">
-        <v>216.9799957275391</v>
+        <v>224.9900054931641</v>
       </c>
       <c r="E127">
-        <v>216.9799957275391</v>
+        <v>224.9900054931641</v>
       </c>
       <c r="F127">
-        <v>10953000</v>
+        <v>7157600</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>217.8099975585938</v>
+        <v>227.3399963378906</v>
       </c>
       <c r="B128">
-        <v>222.6199951171875</v>
+        <v>229</v>
       </c>
       <c r="C128">
-        <v>217.1499938964844</v>
+        <v>225.8999938964844</v>
       </c>
       <c r="D128">
-        <v>221.1000061035156</v>
+        <v>226.4799957275391</v>
       </c>
       <c r="E128">
-        <v>221.1000061035156</v>
+        <v>226.4799957275391</v>
       </c>
       <c r="F128">
-        <v>9344600</v>
+        <v>7748500</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>219.1300048828125</v>
+        <v>226.75</v>
       </c>
       <c r="B129">
-        <v>222.4100036621094</v>
+        <v>228.7100067138672</v>
       </c>
       <c r="C129">
-        <v>218.6600036621094</v>
+        <v>225.3999938964844</v>
       </c>
       <c r="D129">
-        <v>221.3899993896484</v>
+        <v>226.3899993896484</v>
       </c>
       <c r="E129">
-        <v>221.3899993896484</v>
+        <v>226.3899993896484</v>
       </c>
       <c r="F129">
-        <v>6478100</v>
+        <v>4512400</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/BA/BA_HighLow.xlsx
+++ b/Stocks/BA/BA_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>250.5099945068359</v>
+        <v>247</v>
       </c>
       <c r="B2">
-        <v>252.8399963378906</v>
+        <v>247</v>
       </c>
       <c r="C2">
-        <v>249.4400024414062</v>
+        <v>242.2200012207031</v>
       </c>
       <c r="D2">
-        <v>252.3600006103516</v>
+        <v>244.1499938964844</v>
       </c>
       <c r="E2">
-        <v>252.3600006103516</v>
+        <v>244.1499938964844</v>
       </c>
       <c r="F2">
-        <v>12255900</v>
+        <v>9249300</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>250.5700073242188</v>
+        <v>241.0299987792969</v>
       </c>
       <c r="B3">
-        <v>251.5500030517578</v>
+        <v>241.0899963378906</v>
       </c>
       <c r="C3">
-        <v>246.2899932861328</v>
+        <v>232.3399963378906</v>
       </c>
       <c r="D3">
-        <v>249.5200042724609</v>
+        <v>234.0599975585938</v>
       </c>
       <c r="E3">
-        <v>249.5200042724609</v>
+        <v>234.0599975585938</v>
       </c>
       <c r="F3">
-        <v>10383600</v>
+        <v>19483600</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>248.3300018310547</v>
+        <v>232.2200012207031</v>
       </c>
       <c r="B4">
-        <v>254.4900054931641</v>
+        <v>236.7599945068359</v>
       </c>
       <c r="C4">
-        <v>246.1000061035156</v>
+        <v>230.2200012207031</v>
       </c>
       <c r="D4">
-        <v>253.2700042724609</v>
+        <v>235.9199981689453</v>
       </c>
       <c r="E4">
-        <v>253.2700042724609</v>
+        <v>235.9199981689453</v>
       </c>
       <c r="F4">
-        <v>15901400</v>
+        <v>12847000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>255.3200073242188</v>
+        <v>235.9600067138672</v>
       </c>
       <c r="B5">
-        <v>258.3699951171875</v>
+        <v>239.6499938964844</v>
       </c>
       <c r="C5">
-        <v>251.2799987792969</v>
+        <v>233.3800048828125</v>
       </c>
       <c r="D5">
-        <v>252.4299926757812</v>
+        <v>234.3300018310547</v>
       </c>
       <c r="E5">
-        <v>252.4299926757812</v>
+        <v>234.3300018310547</v>
       </c>
       <c r="F5">
-        <v>12661800</v>
+        <v>13854400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>253.5599975585938</v>
+        <v>233.8899993896484</v>
       </c>
       <c r="B6">
-        <v>254.1199951171875</v>
+        <v>238.5800018310547</v>
       </c>
       <c r="C6">
-        <v>249.4299926757812</v>
+        <v>233.1100006103516</v>
       </c>
       <c r="D6">
-        <v>251.1100006103516</v>
+        <v>238.3800048828125</v>
       </c>
       <c r="E6">
-        <v>251.1100006103516</v>
+        <v>238.3800048828125</v>
       </c>
       <c r="F6">
-        <v>9479000</v>
+        <v>11533100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>252</v>
+        <v>240.2400054931641</v>
       </c>
       <c r="B7">
-        <v>253.0500030517578</v>
+        <v>244.6499938964844</v>
       </c>
       <c r="C7">
-        <v>246.2299957275391</v>
+        <v>240.1000061035156</v>
       </c>
       <c r="D7">
-        <v>248.1799926757812</v>
+        <v>241.4400024414062</v>
       </c>
       <c r="E7">
-        <v>248.1799926757812</v>
+        <v>241.4400024414062</v>
       </c>
       <c r="F7">
-        <v>14606000</v>
+        <v>10599600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>247</v>
+        <v>241.8800048828125</v>
       </c>
       <c r="B8">
-        <v>247</v>
+        <v>243.4900054931641</v>
       </c>
       <c r="C8">
-        <v>242.2200012207031</v>
+        <v>239.4100036621094</v>
       </c>
       <c r="D8">
-        <v>244.1499938964844</v>
+        <v>242.4700012207031</v>
       </c>
       <c r="E8">
-        <v>244.1499938964844</v>
+        <v>242.4700012207031</v>
       </c>
       <c r="F8">
-        <v>9249300</v>
+        <v>10583300</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>241.0299987792969</v>
+        <v>239</v>
       </c>
       <c r="B9">
-        <v>241.0899963378906</v>
+        <v>239.6499938964844</v>
       </c>
       <c r="C9">
-        <v>232.3399963378906</v>
+        <v>232.8500061035156</v>
       </c>
       <c r="D9">
-        <v>234.0599975585938</v>
+        <v>235.4600067138672</v>
       </c>
       <c r="E9">
-        <v>234.0599975585938</v>
+        <v>235.4600067138672</v>
       </c>
       <c r="F9">
-        <v>19483600</v>
+        <v>19054100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>232.2200012207031</v>
+        <v>237</v>
       </c>
       <c r="B10">
-        <v>236.7599945068359</v>
+        <v>237.6799926757812</v>
       </c>
       <c r="C10">
-        <v>230.2200012207031</v>
+        <v>231.8000030517578</v>
       </c>
       <c r="D10">
-        <v>235.9199981689453</v>
+        <v>235.9400024414062</v>
       </c>
       <c r="E10">
-        <v>235.9199981689453</v>
+        <v>235.9400024414062</v>
       </c>
       <c r="F10">
-        <v>12847000</v>
+        <v>12296100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>235.9600067138672</v>
+        <v>233.6799926757812</v>
       </c>
       <c r="B11">
-        <v>239.6499938964844</v>
+        <v>236.7700042724609</v>
       </c>
       <c r="C11">
-        <v>233.3800048828125</v>
+        <v>232.6999969482422</v>
       </c>
       <c r="D11">
-        <v>234.3300018310547</v>
+        <v>234.3099975585938</v>
       </c>
       <c r="E11">
-        <v>234.3300018310547</v>
+        <v>234.3099975585938</v>
       </c>
       <c r="F11">
-        <v>13854400</v>
+        <v>10380400</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>233.8899993896484</v>
+        <v>234.1100006103516</v>
       </c>
       <c r="B12">
-        <v>238.5800018310547</v>
+        <v>237.1000061035156</v>
       </c>
       <c r="C12">
-        <v>233.1100006103516</v>
+        <v>233.8099975585938</v>
       </c>
       <c r="D12">
-        <v>238.3800048828125</v>
+        <v>235.1900024414062</v>
       </c>
       <c r="E12">
-        <v>238.3800048828125</v>
+        <v>235.1900024414062</v>
       </c>
       <c r="F12">
-        <v>11533100</v>
+        <v>9887800</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>240.2400054931641</v>
+        <v>235.75</v>
       </c>
       <c r="B13">
-        <v>244.6499938964844</v>
+        <v>236.6499938964844</v>
       </c>
       <c r="C13">
-        <v>240.1000061035156</v>
+        <v>225.6499938964844</v>
       </c>
       <c r="D13">
-        <v>241.4400024414062</v>
+        <v>233.6300048828125</v>
       </c>
       <c r="E13">
-        <v>241.4400024414062</v>
+        <v>233.6300048828125</v>
       </c>
       <c r="F13">
-        <v>10599600</v>
+        <v>17807200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>241.8800048828125</v>
+        <v>232.4499969482422</v>
       </c>
       <c r="B14">
-        <v>243.4900054931641</v>
+        <v>233.4900054931641</v>
       </c>
       <c r="C14">
-        <v>239.4100036621094</v>
+        <v>227.5599975585938</v>
       </c>
       <c r="D14">
-        <v>242.4700012207031</v>
+        <v>228.1799926757812</v>
       </c>
       <c r="E14">
-        <v>242.4700012207031</v>
+        <v>228.1799926757812</v>
       </c>
       <c r="F14">
-        <v>10583300</v>
+        <v>14913500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>239</v>
+        <v>229.3000030517578</v>
       </c>
       <c r="B15">
-        <v>239.6499938964844</v>
+        <v>231.1699981689453</v>
       </c>
       <c r="C15">
-        <v>232.8500061035156</v>
+        <v>226.5500030517578</v>
       </c>
       <c r="D15">
-        <v>235.4600067138672</v>
+        <v>229.8099975585938</v>
       </c>
       <c r="E15">
-        <v>235.4600067138672</v>
+        <v>229.8099975585938</v>
       </c>
       <c r="F15">
-        <v>19054100</v>
+        <v>11857100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>237</v>
+        <v>229.8000030517578</v>
       </c>
       <c r="B16">
-        <v>237.6799926757812</v>
+        <v>235.9100036621094</v>
       </c>
       <c r="C16">
-        <v>231.8000030517578</v>
+        <v>227.9900054931641</v>
       </c>
       <c r="D16">
-        <v>235.9400024414062</v>
+        <v>235.4700012207031</v>
       </c>
       <c r="E16">
-        <v>235.9400024414062</v>
+        <v>235.4700012207031</v>
       </c>
       <c r="F16">
-        <v>12296100</v>
+        <v>12823000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>233.6799926757812</v>
+        <v>236.8399963378906</v>
       </c>
       <c r="B17">
-        <v>236.7700042724609</v>
+        <v>241.1000061035156</v>
       </c>
       <c r="C17">
-        <v>232.6999969482422</v>
+        <v>232.5</v>
       </c>
       <c r="D17">
-        <v>234.3099975585938</v>
+        <v>232.9299926757812</v>
       </c>
       <c r="E17">
-        <v>234.3099975585938</v>
+        <v>232.9299926757812</v>
       </c>
       <c r="F17">
-        <v>10380400</v>
+        <v>14813900</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>234.1100006103516</v>
+        <v>226.5599975585938</v>
       </c>
       <c r="B18">
-        <v>237.1000061035156</v>
+        <v>230.1300048828125</v>
       </c>
       <c r="C18">
-        <v>233.8099975585938</v>
+        <v>223.8500061035156</v>
       </c>
       <c r="D18">
-        <v>235.1900024414062</v>
+        <v>228.8800048828125</v>
       </c>
       <c r="E18">
-        <v>235.1900024414062</v>
+        <v>228.8800048828125</v>
       </c>
       <c r="F18">
-        <v>9887800</v>
+        <v>16273200</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>235.75</v>
+        <v>227.25</v>
       </c>
       <c r="B19">
-        <v>236.6499938964844</v>
+        <v>229.7400054931641</v>
       </c>
       <c r="C19">
-        <v>225.6499938964844</v>
+        <v>220.6300048828125</v>
       </c>
       <c r="D19">
-        <v>233.6300048828125</v>
+        <v>220.7799987792969</v>
       </c>
       <c r="E19">
-        <v>233.6300048828125</v>
+        <v>220.7799987792969</v>
       </c>
       <c r="F19">
-        <v>17807200</v>
+        <v>14931200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>232.4499969482422</v>
+        <v>223</v>
       </c>
       <c r="B20">
-        <v>233.4900054931641</v>
+        <v>229.2700042724609</v>
       </c>
       <c r="C20">
-        <v>227.5599975585938</v>
+        <v>219.0700073242188</v>
       </c>
       <c r="D20">
-        <v>228.1799926757812</v>
+        <v>222.6399993896484</v>
       </c>
       <c r="E20">
-        <v>228.1799926757812</v>
+        <v>222.6399993896484</v>
       </c>
       <c r="F20">
-        <v>14913500</v>
+        <v>16503400</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>229.3000030517578</v>
+        <v>225.9900054931641</v>
       </c>
       <c r="B21">
-        <v>231.1699981689453</v>
+        <v>228.8099975585938</v>
       </c>
       <c r="C21">
-        <v>226.5500030517578</v>
+        <v>224.3500061035156</v>
       </c>
       <c r="D21">
-        <v>229.8099975585938</v>
+        <v>228.4700012207031</v>
       </c>
       <c r="E21">
-        <v>229.8099975585938</v>
+        <v>228.4700012207031</v>
       </c>
       <c r="F21">
-        <v>11857100</v>
+        <v>10162400</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>229.8000030517578</v>
+        <v>226.2400054931641</v>
       </c>
       <c r="B22">
-        <v>235.9100036621094</v>
+        <v>228.2599945068359</v>
       </c>
       <c r="C22">
-        <v>227.9900054931641</v>
+        <v>223.5800018310547</v>
       </c>
       <c r="D22">
-        <v>235.4700012207031</v>
+        <v>227.9799957275391</v>
       </c>
       <c r="E22">
-        <v>235.4700012207031</v>
+        <v>227.9799957275391</v>
       </c>
       <c r="F22">
-        <v>12823000</v>
+        <v>9559300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>236.8399963378906</v>
+        <v>227.25</v>
       </c>
       <c r="B23">
-        <v>241.1000061035156</v>
+        <v>232.2700042724609</v>
       </c>
       <c r="C23">
-        <v>232.5</v>
+        <v>226.4299926757812</v>
       </c>
       <c r="D23">
-        <v>232.9299926757812</v>
+        <v>227.5500030517578</v>
       </c>
       <c r="E23">
-        <v>232.9299926757812</v>
+        <v>227.5500030517578</v>
       </c>
       <c r="F23">
-        <v>14813900</v>
+        <v>10081100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>226.5599975585938</v>
+        <v>223.1799926757812</v>
       </c>
       <c r="B24">
-        <v>230.1300048828125</v>
+        <v>225.1199951171875</v>
       </c>
       <c r="C24">
-        <v>223.8500061035156</v>
+        <v>220.2799987792969</v>
       </c>
       <c r="D24">
-        <v>228.8800048828125</v>
+        <v>224.4199981689453</v>
       </c>
       <c r="E24">
-        <v>228.8800048828125</v>
+        <v>224.4199981689453</v>
       </c>
       <c r="F24">
-        <v>16273200</v>
+        <v>13162700</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>227.25</v>
+        <v>225.1300048828125</v>
       </c>
       <c r="B25">
-        <v>229.7400054931641</v>
+        <v>228.4400024414062</v>
       </c>
       <c r="C25">
-        <v>220.6300048828125</v>
+        <v>223.7700042724609</v>
       </c>
       <c r="D25">
-        <v>220.7799987792969</v>
+        <v>227.6499938964844</v>
       </c>
       <c r="E25">
-        <v>220.7799987792969</v>
+        <v>227.6499938964844</v>
       </c>
       <c r="F25">
-        <v>14931200</v>
+        <v>9218900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>223</v>
+        <v>232.8999938964844</v>
       </c>
       <c r="B26">
-        <v>229.2700042724609</v>
+        <v>236.3000030517578</v>
       </c>
       <c r="C26">
-        <v>219.0700073242188</v>
+        <v>231.3899993896484</v>
       </c>
       <c r="D26">
-        <v>222.6399993896484</v>
+        <v>234.8200073242188</v>
       </c>
       <c r="E26">
-        <v>222.6399993896484</v>
+        <v>234.8200073242188</v>
       </c>
       <c r="F26">
-        <v>16503400</v>
+        <v>16579000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>225.9900054931641</v>
+        <v>235.1399993896484</v>
       </c>
       <c r="B27">
-        <v>228.8099975585938</v>
+        <v>238.5</v>
       </c>
       <c r="C27">
-        <v>224.3500061035156</v>
+        <v>232.6000061035156</v>
       </c>
       <c r="D27">
-        <v>228.4700012207031</v>
+        <v>237.4400024414062</v>
       </c>
       <c r="E27">
-        <v>228.4700012207031</v>
+        <v>237.4400024414062</v>
       </c>
       <c r="F27">
-        <v>10162400</v>
+        <v>10106000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>226.2400054931641</v>
+        <v>240</v>
       </c>
       <c r="B28">
-        <v>228.2599945068359</v>
+        <v>243.7799987792969</v>
       </c>
       <c r="C28">
-        <v>223.5800018310547</v>
+        <v>239.2299957275391</v>
       </c>
       <c r="D28">
-        <v>227.9799957275391</v>
+        <v>240.7400054931641</v>
       </c>
       <c r="E28">
-        <v>227.9799957275391</v>
+        <v>240.7400054931641</v>
       </c>
       <c r="F28">
-        <v>9559300</v>
+        <v>12908000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>227.25</v>
+        <v>241.6999969482422</v>
       </c>
       <c r="B29">
-        <v>232.2700042724609</v>
+        <v>242.4900054931641</v>
       </c>
       <c r="C29">
-        <v>226.4299926757812</v>
+        <v>239.8699951171875</v>
       </c>
       <c r="D29">
-        <v>227.5500030517578</v>
+        <v>241.3699951171875</v>
       </c>
       <c r="E29">
-        <v>227.5500030517578</v>
+        <v>241.3699951171875</v>
       </c>
       <c r="F29">
-        <v>10081100</v>
+        <v>7240200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>223.1799926757812</v>
+        <v>248.1100006103516</v>
       </c>
       <c r="B30">
-        <v>225.1199951171875</v>
+        <v>252.6000061035156</v>
       </c>
       <c r="C30">
-        <v>220.2799987792969</v>
+        <v>247.1900024414062</v>
       </c>
       <c r="D30">
-        <v>224.4199981689453</v>
+        <v>250.6999969482422</v>
       </c>
       <c r="E30">
-        <v>224.4199981689453</v>
+        <v>250.6999969482422</v>
       </c>
       <c r="F30">
-        <v>13162700</v>
+        <v>18404400</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>225.1300048828125</v>
+        <v>247.4799957275391</v>
       </c>
       <c r="B31">
-        <v>228.4400024414062</v>
+        <v>248.9799957275391</v>
       </c>
       <c r="C31">
-        <v>223.7700042724609</v>
+        <v>245.3699951171875</v>
       </c>
       <c r="D31">
-        <v>227.6499938964844</v>
+        <v>247.0200042724609</v>
       </c>
       <c r="E31">
-        <v>227.6499938964844</v>
+        <v>247.0200042724609</v>
       </c>
       <c r="F31">
-        <v>9218900</v>
+        <v>11197400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>232.8999938964844</v>
+        <v>253</v>
       </c>
       <c r="B32">
-        <v>236.3000030517578</v>
+        <v>255.6399993896484</v>
       </c>
       <c r="C32">
-        <v>231.3899993896484</v>
+        <v>251.5200042724609</v>
       </c>
       <c r="D32">
-        <v>234.8200073242188</v>
+        <v>254.7299957275391</v>
       </c>
       <c r="E32">
-        <v>234.8200073242188</v>
+        <v>254.7299957275391</v>
       </c>
       <c r="F32">
-        <v>16579000</v>
+        <v>13562800</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>235.1399993896484</v>
+        <v>255.6000061035156</v>
       </c>
       <c r="B33">
-        <v>238.5</v>
+        <v>258.3999938964844</v>
       </c>
       <c r="C33">
-        <v>232.6000061035156</v>
+        <v>254.6199951171875</v>
       </c>
       <c r="D33">
-        <v>237.4400024414062</v>
+        <v>255.6199951171875</v>
       </c>
       <c r="E33">
-        <v>237.4400024414062</v>
+        <v>255.6199951171875</v>
       </c>
       <c r="F33">
-        <v>10106000</v>
+        <v>10820400</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>240</v>
+        <v>252.9799957275391</v>
       </c>
       <c r="B34">
-        <v>243.7799987792969</v>
+        <v>254.8000030517578</v>
       </c>
       <c r="C34">
-        <v>239.2299957275391</v>
+        <v>249.6900024414062</v>
       </c>
       <c r="D34">
-        <v>240.7400054931641</v>
+        <v>250.3200073242188</v>
       </c>
       <c r="E34">
-        <v>240.7400054931641</v>
+        <v>250.3200073242188</v>
       </c>
       <c r="F34">
-        <v>12908000</v>
+        <v>10402000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>241.6999969482422</v>
+        <v>251.5099945068359</v>
       </c>
       <c r="B35">
-        <v>242.4900054931641</v>
+        <v>251.8000030517578</v>
       </c>
       <c r="C35">
-        <v>239.8699951171875</v>
+        <v>248.4900054931641</v>
       </c>
       <c r="D35">
-        <v>241.3699951171875</v>
+        <v>249.9199981689453</v>
       </c>
       <c r="E35">
-        <v>241.3699951171875</v>
+        <v>249.9199981689453</v>
       </c>
       <c r="F35">
-        <v>7240200</v>
+        <v>8799000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>248.1100006103516</v>
+        <v>251.5</v>
       </c>
       <c r="B36">
-        <v>252.6000061035156</v>
+        <v>253.1999969482422</v>
       </c>
       <c r="C36">
-        <v>247.1900024414062</v>
+        <v>248.8099975585938</v>
       </c>
       <c r="D36">
-        <v>250.6999969482422</v>
+        <v>252.6600036621094</v>
       </c>
       <c r="E36">
-        <v>250.6999969482422</v>
+        <v>252.6600036621094</v>
       </c>
       <c r="F36">
-        <v>18404400</v>
+        <v>10606000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>247.4799957275391</v>
+        <v>256.260009765625</v>
       </c>
       <c r="B37">
-        <v>248.9799957275391</v>
+        <v>256.3099975585938</v>
       </c>
       <c r="C37">
-        <v>245.3699951171875</v>
+        <v>250</v>
       </c>
       <c r="D37">
-        <v>247.0200042724609</v>
+        <v>252.7599945068359</v>
       </c>
       <c r="E37">
-        <v>247.0200042724609</v>
+        <v>252.7599945068359</v>
       </c>
       <c r="F37">
-        <v>11197400</v>
+        <v>15113900</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>253</v>
+        <v>251.1999969482422</v>
       </c>
       <c r="B38">
-        <v>255.6399993896484</v>
+        <v>253.1699981689453</v>
       </c>
       <c r="C38">
-        <v>251.5200042724609</v>
+        <v>247.9100036621094</v>
       </c>
       <c r="D38">
-        <v>254.7299957275391</v>
+        <v>248.0599975585938</v>
       </c>
       <c r="E38">
-        <v>254.7299957275391</v>
+        <v>248.0599975585938</v>
       </c>
       <c r="F38">
-        <v>13562800</v>
+        <v>10693200</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>255.6000061035156</v>
+        <v>251.7200012207031</v>
       </c>
       <c r="B39">
-        <v>258.3999938964844</v>
+        <v>255.1399993896484</v>
       </c>
       <c r="C39">
-        <v>254.6199951171875</v>
+        <v>248.1000061035156</v>
       </c>
       <c r="D39">
-        <v>255.6199951171875</v>
+        <v>248.3399963378906</v>
       </c>
       <c r="E39">
-        <v>255.6199951171875</v>
+        <v>248.3399963378906</v>
       </c>
       <c r="F39">
-        <v>10820400</v>
+        <v>14519200</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>252.9799957275391</v>
+        <v>250.3500061035156</v>
       </c>
       <c r="B40">
-        <v>254.8000030517578</v>
+        <v>251.1199951171875</v>
       </c>
       <c r="C40">
-        <v>249.6900024414062</v>
+        <v>245.7799987792969</v>
       </c>
       <c r="D40">
-        <v>250.3200073242188</v>
+        <v>247.2799987792969</v>
       </c>
       <c r="E40">
-        <v>250.3200073242188</v>
+        <v>247.2799987792969</v>
       </c>
       <c r="F40">
-        <v>10402000</v>
+        <v>9934200</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>251.5099945068359</v>
+        <v>246.4400024414062</v>
       </c>
       <c r="B41">
-        <v>251.8000030517578</v>
+        <v>249.1999969482422</v>
       </c>
       <c r="C41">
-        <v>248.4900054931641</v>
+        <v>244.3999938964844</v>
       </c>
       <c r="D41">
-        <v>249.9199981689453</v>
+        <v>245.1399993896484</v>
       </c>
       <c r="E41">
-        <v>249.9199981689453</v>
+        <v>245.1399993896484</v>
       </c>
       <c r="F41">
-        <v>8799000</v>
+        <v>9344400</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>251.5</v>
+        <v>245.3600006103516</v>
       </c>
       <c r="B42">
-        <v>253.1999969482422</v>
+        <v>248.5099945068359</v>
       </c>
       <c r="C42">
-        <v>248.8099975585938</v>
+        <v>244.9400024414062</v>
       </c>
       <c r="D42">
-        <v>252.6600036621094</v>
+        <v>246.5399932861328</v>
       </c>
       <c r="E42">
-        <v>252.6600036621094</v>
+        <v>246.5399932861328</v>
       </c>
       <c r="F42">
-        <v>10606000</v>
+        <v>10630900</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>256.260009765625</v>
+        <v>245.25</v>
       </c>
       <c r="B43">
-        <v>256.3099975585938</v>
+        <v>246.0599975585938</v>
       </c>
       <c r="C43">
-        <v>250</v>
+        <v>241.5500030517578</v>
       </c>
       <c r="D43">
-        <v>252.7599945068359</v>
+        <v>242.2700042724609</v>
       </c>
       <c r="E43">
-        <v>252.7599945068359</v>
+        <v>242.2700042724609</v>
       </c>
       <c r="F43">
-        <v>15113900</v>
+        <v>10529200</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>251.1999969482422</v>
+        <v>241.9600067138672</v>
       </c>
       <c r="B44">
-        <v>253.1699981689453</v>
+        <v>243.5</v>
       </c>
       <c r="C44">
-        <v>247.9100036621094</v>
+        <v>237.3300018310547</v>
       </c>
       <c r="D44">
-        <v>248.0599975585938</v>
+        <v>239.2200012207031</v>
       </c>
       <c r="E44">
-        <v>248.0599975585938</v>
+        <v>239.2200012207031</v>
       </c>
       <c r="F44">
-        <v>10693200</v>
+        <v>10774400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>251.7200012207031</v>
+        <v>237.7899932861328</v>
       </c>
       <c r="B45">
-        <v>255.1399993896484</v>
+        <v>239.3099975585938</v>
       </c>
       <c r="C45">
-        <v>248.1000061035156</v>
+        <v>235.8000030517578</v>
       </c>
       <c r="D45">
-        <v>248.3399963378906</v>
+        <v>237.3500061035156</v>
       </c>
       <c r="E45">
-        <v>248.3399963378906</v>
+        <v>237.3500061035156</v>
       </c>
       <c r="F45">
-        <v>14519200</v>
+        <v>11965000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>250.3500061035156</v>
+        <v>238.6600036621094</v>
       </c>
       <c r="B46">
-        <v>251.1199951171875</v>
+        <v>245.6199951171875</v>
       </c>
       <c r="C46">
-        <v>245.7799987792969</v>
+        <v>237.25</v>
       </c>
       <c r="D46">
-        <v>247.2799987792969</v>
+        <v>245.2799987792969</v>
       </c>
       <c r="E46">
-        <v>247.2799987792969</v>
+        <v>245.2799987792969</v>
       </c>
       <c r="F46">
-        <v>9934200</v>
+        <v>15301800</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>246.4400024414062</v>
+        <v>244.5</v>
       </c>
       <c r="B47">
-        <v>249.1999969482422</v>
+        <v>244.6300048828125</v>
       </c>
       <c r="C47">
-        <v>244.3999938964844</v>
+        <v>241.0800018310547</v>
       </c>
       <c r="D47">
-        <v>245.1399993896484</v>
+        <v>243.7799987792969</v>
       </c>
       <c r="E47">
-        <v>245.1399993896484</v>
+        <v>243.7799987792969</v>
       </c>
       <c r="F47">
-        <v>9344400</v>
+        <v>10042500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>245.3600006103516</v>
+        <v>244.8000030517578</v>
       </c>
       <c r="B48">
-        <v>248.5099945068359</v>
+        <v>246.8699951171875</v>
       </c>
       <c r="C48">
-        <v>244.9400024414062</v>
+        <v>243.1699981689453</v>
       </c>
       <c r="D48">
-        <v>246.5399932861328</v>
+        <v>243.5700073242188</v>
       </c>
       <c r="E48">
-        <v>246.5399932861328</v>
+        <v>243.5700073242188</v>
       </c>
       <c r="F48">
-        <v>10630900</v>
+        <v>9874700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>245.25</v>
+        <v>245.1999969482422</v>
       </c>
       <c r="B49">
-        <v>246.0599975585938</v>
+        <v>250.7400054931641</v>
       </c>
       <c r="C49">
-        <v>241.5500030517578</v>
+        <v>243.6999969482422</v>
       </c>
       <c r="D49">
-        <v>242.2700042724609</v>
+        <v>250.5700073242188</v>
       </c>
       <c r="E49">
-        <v>242.2700042724609</v>
+        <v>250.5700073242188</v>
       </c>
       <c r="F49">
-        <v>10529200</v>
+        <v>13755600</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>241.9600067138672</v>
+        <v>250.75</v>
       </c>
       <c r="B50">
-        <v>243.5</v>
+        <v>252.3000030517578</v>
       </c>
       <c r="C50">
-        <v>237.3300018310547</v>
+        <v>248.25</v>
       </c>
       <c r="D50">
-        <v>239.2200012207031</v>
+        <v>248.3800048828125</v>
       </c>
       <c r="E50">
-        <v>239.2200012207031</v>
+        <v>248.3800048828125</v>
       </c>
       <c r="F50">
-        <v>10774400</v>
+        <v>9625800</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>237.7899932861328</v>
+        <v>244.7299957275391</v>
       </c>
       <c r="B51">
-        <v>239.3099975585938</v>
+        <v>245.0800018310547</v>
       </c>
       <c r="C51">
-        <v>235.8000030517578</v>
+        <v>238.8800048828125</v>
       </c>
       <c r="D51">
-        <v>237.3500061035156</v>
+        <v>239.9600067138672</v>
       </c>
       <c r="E51">
-        <v>237.3500061035156</v>
+        <v>239.9600067138672</v>
       </c>
       <c r="F51">
-        <v>11965000</v>
+        <v>18152000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>238.6600036621094</v>
+        <v>243.7400054931641</v>
       </c>
       <c r="B52">
-        <v>245.6199951171875</v>
+        <v>244.3699951171875</v>
       </c>
       <c r="C52">
-        <v>237.25</v>
+        <v>235.6600036621094</v>
       </c>
       <c r="D52">
-        <v>245.2799987792969</v>
+        <v>235.7599945068359</v>
       </c>
       <c r="E52">
-        <v>245.2799987792969</v>
+        <v>235.7599945068359</v>
       </c>
       <c r="F52">
-        <v>15301800</v>
+        <v>16743900</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>244.5</v>
+        <v>236.2400054931641</v>
       </c>
       <c r="B53">
-        <v>244.6300048828125</v>
+        <v>241.1699981689453</v>
       </c>
       <c r="C53">
-        <v>241.0800018310547</v>
+        <v>236</v>
       </c>
       <c r="D53">
-        <v>243.7799987792969</v>
+        <v>239.5599975585938</v>
       </c>
       <c r="E53">
-        <v>243.7799987792969</v>
+        <v>239.5599975585938</v>
       </c>
       <c r="F53">
-        <v>10042500</v>
+        <v>12089100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>244.8000030517578</v>
+        <v>240.3600006103516</v>
       </c>
       <c r="B54">
-        <v>246.8699951171875</v>
+        <v>241.8000030517578</v>
       </c>
       <c r="C54">
-        <v>243.1699981689453</v>
+        <v>238.6100006103516</v>
       </c>
       <c r="D54">
-        <v>243.5700073242188</v>
+        <v>239.7299957275391</v>
       </c>
       <c r="E54">
-        <v>243.5700073242188</v>
+        <v>239.7299957275391</v>
       </c>
       <c r="F54">
-        <v>9874700</v>
+        <v>9516200</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>245.1999969482422</v>
+        <v>239.5500030517578</v>
       </c>
       <c r="B55">
-        <v>250.7400054931641</v>
+        <v>240.1100006103516</v>
       </c>
       <c r="C55">
-        <v>243.6999969482422</v>
+        <v>233.4700012207031</v>
       </c>
       <c r="D55">
-        <v>250.5700073242188</v>
+        <v>236.6799926757812</v>
       </c>
       <c r="E55">
-        <v>250.5700073242188</v>
+        <v>236.6799926757812</v>
       </c>
       <c r="F55">
-        <v>13755600</v>
+        <v>15706600</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>250.75</v>
+        <v>236.8500061035156</v>
       </c>
       <c r="B56">
-        <v>252.3000030517578</v>
+        <v>237.1699981689453</v>
       </c>
       <c r="C56">
-        <v>248.25</v>
+        <v>233.4700012207031</v>
       </c>
       <c r="D56">
-        <v>248.3800048828125</v>
+        <v>236.1399993896484</v>
       </c>
       <c r="E56">
-        <v>248.3800048828125</v>
+        <v>236.1399993896484</v>
       </c>
       <c r="F56">
-        <v>9625800</v>
+        <v>11045800</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>244.7299957275391</v>
+        <v>235.1699981689453</v>
       </c>
       <c r="B57">
-        <v>245.0800018310547</v>
+        <v>238.0099945068359</v>
       </c>
       <c r="C57">
-        <v>238.8800048828125</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="D57">
-        <v>239.9600067138672</v>
+        <v>231.7799987792969</v>
       </c>
       <c r="E57">
-        <v>239.9600067138672</v>
+        <v>231.7799987792969</v>
       </c>
       <c r="F57">
-        <v>18152000</v>
+        <v>11497000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>243.7400054931641</v>
+        <v>227.4799957275391</v>
       </c>
       <c r="B58">
-        <v>244.3699951171875</v>
+        <v>237.4700012207031</v>
       </c>
       <c r="C58">
-        <v>235.6600036621094</v>
+        <v>226.1600036621094</v>
       </c>
       <c r="D58">
-        <v>235.7599945068359</v>
+        <v>236.7700042724609</v>
       </c>
       <c r="E58">
-        <v>235.7599945068359</v>
+        <v>236.7700042724609</v>
       </c>
       <c r="F58">
-        <v>16743900</v>
+        <v>17964300</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>236.2400054931641</v>
+        <v>237.7700042724609</v>
       </c>
       <c r="B59">
-        <v>241.1699981689453</v>
+        <v>240.3800048828125</v>
       </c>
       <c r="C59">
-        <v>236</v>
+        <v>236.2200012207031</v>
       </c>
       <c r="D59">
-        <v>239.5599975585938</v>
+        <v>239.5899963378906</v>
       </c>
       <c r="E59">
-        <v>239.5599975585938</v>
+        <v>239.5899963378906</v>
       </c>
       <c r="F59">
-        <v>12089100</v>
+        <v>12385400</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>240.3600006103516</v>
+        <v>237.9900054931641</v>
       </c>
       <c r="B60">
-        <v>241.8000030517578</v>
+        <v>240.7700042724609</v>
       </c>
       <c r="C60">
-        <v>238.6100006103516</v>
+        <v>236.4600067138672</v>
       </c>
       <c r="D60">
-        <v>239.7299957275391</v>
+        <v>238.2899932861328</v>
       </c>
       <c r="E60">
-        <v>239.7299957275391</v>
+        <v>238.2899932861328</v>
       </c>
       <c r="F60">
-        <v>9516200</v>
+        <v>9071500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>239.5500030517578</v>
+        <v>232.2700042724609</v>
       </c>
       <c r="B61">
-        <v>240.1100006103516</v>
+        <v>234.4900054931641</v>
       </c>
       <c r="C61">
-        <v>233.4700012207031</v>
+        <v>228.1600036621094</v>
       </c>
       <c r="D61">
-        <v>236.6799926757812</v>
+        <v>228.1999969482422</v>
       </c>
       <c r="E61">
-        <v>236.6799926757812</v>
+        <v>228.1999969482422</v>
       </c>
       <c r="F61">
-        <v>15706600</v>
+        <v>21029500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>236.8500061035156</v>
+        <v>229.0200042724609</v>
       </c>
       <c r="B62">
-        <v>237.1699981689453</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="C62">
-        <v>233.4700012207031</v>
+        <v>224.3000030517578</v>
       </c>
       <c r="D62">
-        <v>236.1399993896484</v>
+        <v>224.4499969482422</v>
       </c>
       <c r="E62">
-        <v>236.1399993896484</v>
+        <v>224.4499969482422</v>
       </c>
       <c r="F62">
-        <v>11045800</v>
+        <v>12137000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>235.1699981689453</v>
+        <v>222.8800048828125</v>
       </c>
       <c r="B63">
-        <v>238.0099945068359</v>
+        <v>226.6699981689453</v>
       </c>
       <c r="C63">
-        <v>230.5200042724609</v>
+        <v>220.8000030517578</v>
       </c>
       <c r="D63">
-        <v>231.7799987792969</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="E63">
-        <v>231.7799987792969</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="F63">
-        <v>11497000</v>
+        <v>12228600</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>227.4799957275391</v>
+        <v>223.1100006103516</v>
       </c>
       <c r="B64">
-        <v>237.4700012207031</v>
+        <v>224</v>
       </c>
       <c r="C64">
-        <v>226.1600036621094</v>
+        <v>217.0299987792969</v>
       </c>
       <c r="D64">
-        <v>236.7700042724609</v>
+        <v>217.7400054931641</v>
       </c>
       <c r="E64">
-        <v>236.7700042724609</v>
+        <v>217.7400054931641</v>
       </c>
       <c r="F64">
-        <v>17964300</v>
+        <v>12413400</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>237.7700042724609</v>
+        <v>211.1799926757812</v>
       </c>
       <c r="B65">
-        <v>240.3800048828125</v>
+        <v>211.5500030517578</v>
       </c>
       <c r="C65">
-        <v>236.2200012207031</v>
+        <v>204.8000030517578</v>
       </c>
       <c r="D65">
-        <v>239.5899963378906</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="E65">
-        <v>239.5899963378906</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="F65">
-        <v>12385400</v>
+        <v>24123600</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>237.9900054931641</v>
+        <v>208.1000061035156</v>
       </c>
       <c r="B66">
-        <v>240.7700042724609</v>
+        <v>217.3699951171875</v>
       </c>
       <c r="C66">
-        <v>236.4600067138672</v>
+        <v>206.6199951171875</v>
       </c>
       <c r="D66">
-        <v>238.2899932861328</v>
+        <v>217.1499938964844</v>
       </c>
       <c r="E66">
-        <v>238.2899932861328</v>
+        <v>217.1499938964844</v>
       </c>
       <c r="F66">
-        <v>9071500</v>
+        <v>17027300</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>232.2700042724609</v>
+        <v>219.5</v>
       </c>
       <c r="B67">
-        <v>234.4900054931641</v>
+        <v>224.0899963378906</v>
       </c>
       <c r="C67">
-        <v>228.1600036621094</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D67">
-        <v>228.1999969482422</v>
+        <v>222.5399932861328</v>
       </c>
       <c r="E67">
-        <v>228.1999969482422</v>
+        <v>222.5399932861328</v>
       </c>
       <c r="F67">
-        <v>21029500</v>
+        <v>11437600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>229.0200042724609</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="B68">
-        <v>230.5200042724609</v>
+        <v>222.25</v>
       </c>
       <c r="C68">
-        <v>224.3000030517578</v>
+        <v>218.3099975585938</v>
       </c>
       <c r="D68">
-        <v>224.4499969482422</v>
+        <v>220.8699951171875</v>
       </c>
       <c r="E68">
-        <v>224.4499969482422</v>
+        <v>220.8699951171875</v>
       </c>
       <c r="F68">
-        <v>12137000</v>
+        <v>9768900</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>222.8800048828125</v>
+        <v>222.9700012207031</v>
       </c>
       <c r="B69">
-        <v>226.6699981689453</v>
+        <v>224.6300048828125</v>
       </c>
       <c r="C69">
-        <v>220.8000030517578</v>
+        <v>220.9400024414062</v>
       </c>
       <c r="D69">
-        <v>222.7599945068359</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E69">
-        <v>222.7599945068359</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="F69">
-        <v>12228600</v>
+        <v>9379500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>223.1100006103516</v>
+        <v>220</v>
       </c>
       <c r="B70">
-        <v>224</v>
+        <v>226.1199951171875</v>
       </c>
       <c r="C70">
-        <v>217.0299987792969</v>
+        <v>219.8899993896484</v>
       </c>
       <c r="D70">
-        <v>217.7400054931641</v>
+        <v>225.8500061035156</v>
       </c>
       <c r="E70">
-        <v>217.7400054931641</v>
+        <v>225.8500061035156</v>
       </c>
       <c r="F70">
-        <v>12413400</v>
+        <v>8933200</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>211.1799926757812</v>
+        <v>223.1699981689453</v>
       </c>
       <c r="B71">
-        <v>211.5500030517578</v>
+        <v>225.6999969482422</v>
       </c>
       <c r="C71">
-        <v>204.8000030517578</v>
+        <v>220.4199981689453</v>
       </c>
       <c r="D71">
-        <v>206.9900054931641</v>
+        <v>222.2700042724609</v>
       </c>
       <c r="E71">
-        <v>206.9900054931641</v>
+        <v>222.2700042724609</v>
       </c>
       <c r="F71">
-        <v>24123600</v>
+        <v>8784200</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>208.1000061035156</v>
+        <v>234.0500030517578</v>
       </c>
       <c r="B72">
-        <v>217.3699951171875</v>
+        <v>237.4900054931641</v>
       </c>
       <c r="C72">
-        <v>206.6199951171875</v>
+        <v>231.3300018310547</v>
       </c>
       <c r="D72">
-        <v>217.1499938964844</v>
+        <v>231.5700073242188</v>
       </c>
       <c r="E72">
-        <v>217.1499938964844</v>
+        <v>231.5700073242188</v>
       </c>
       <c r="F72">
-        <v>17027300</v>
+        <v>19330500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>219.5</v>
+        <v>233.6900024414062</v>
       </c>
       <c r="B73">
-        <v>224.0899963378906</v>
+        <v>234.8200073242188</v>
       </c>
       <c r="C73">
-        <v>218.8999938964844</v>
+        <v>231.1199951171875</v>
       </c>
       <c r="D73">
-        <v>222.5399932861328</v>
+        <v>231.6300048828125</v>
       </c>
       <c r="E73">
-        <v>222.5399932861328</v>
+        <v>231.6300048828125</v>
       </c>
       <c r="F73">
-        <v>11437600</v>
+        <v>8667900</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>221.5200042724609</v>
+        <v>229.3899993896484</v>
       </c>
       <c r="B74">
-        <v>222.25</v>
+        <v>231.1799926757812</v>
       </c>
       <c r="C74">
-        <v>218.3099975585938</v>
+        <v>225.3999938964844</v>
       </c>
       <c r="D74">
-        <v>220.8699951171875</v>
+        <v>226.4799957275391</v>
       </c>
       <c r="E74">
-        <v>220.8699951171875</v>
+        <v>226.4799957275391</v>
       </c>
       <c r="F74">
-        <v>9768900</v>
+        <v>9923300</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>222.9700012207031</v>
+        <v>227.1900024414062</v>
       </c>
       <c r="B75">
-        <v>224.6300048828125</v>
+        <v>230.4700012207031</v>
       </c>
       <c r="C75">
-        <v>220.9400024414062</v>
+        <v>224.8699951171875</v>
       </c>
       <c r="D75">
-        <v>221.5200042724609</v>
+        <v>225.3399963378906</v>
       </c>
       <c r="E75">
-        <v>221.5200042724609</v>
+        <v>225.3399963378906</v>
       </c>
       <c r="F75">
-        <v>9379500</v>
+        <v>8889100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>220</v>
+        <v>225.8999938964844</v>
       </c>
       <c r="B76">
-        <v>226.1199951171875</v>
+        <v>229.1000061035156</v>
       </c>
       <c r="C76">
-        <v>219.8899993896484</v>
+        <v>221.3000030517578</v>
       </c>
       <c r="D76">
-        <v>225.8500061035156</v>
+        <v>229.0899963378906</v>
       </c>
       <c r="E76">
-        <v>225.8500061035156</v>
+        <v>229.0899963378906</v>
       </c>
       <c r="F76">
-        <v>8933200</v>
+        <v>7326400</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>223.1699981689453</v>
+        <v>226.4199981689453</v>
       </c>
       <c r="B77">
-        <v>225.6999969482422</v>
+        <v>232.3500061035156</v>
       </c>
       <c r="C77">
-        <v>220.4199981689453</v>
+        <v>225.3300018310547</v>
       </c>
       <c r="D77">
-        <v>222.2700042724609</v>
+        <v>226.6300048828125</v>
       </c>
       <c r="E77">
-        <v>222.2700042724609</v>
+        <v>226.6300048828125</v>
       </c>
       <c r="F77">
-        <v>8784200</v>
+        <v>9756300</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>234.0500030517578</v>
+        <v>226.6799926757812</v>
       </c>
       <c r="B78">
-        <v>237.4900054931641</v>
+        <v>231.5399932861328</v>
       </c>
       <c r="C78">
-        <v>231.3300018310547</v>
+        <v>226.4900054931641</v>
       </c>
       <c r="D78">
-        <v>231.5700073242188</v>
+        <v>229.9400024414062</v>
       </c>
       <c r="E78">
-        <v>231.5700073242188</v>
+        <v>229.9400024414062</v>
       </c>
       <c r="F78">
-        <v>19330500</v>
+        <v>8362600</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>233.6900024414062</v>
+        <v>231.5500030517578</v>
       </c>
       <c r="B79">
-        <v>234.8200073242188</v>
+        <v>233.5700073242188</v>
       </c>
       <c r="C79">
-        <v>231.1199951171875</v>
+        <v>230.4199981689453</v>
       </c>
       <c r="D79">
-        <v>231.6300048828125</v>
+        <v>231.3300018310547</v>
       </c>
       <c r="E79">
-        <v>231.6300048828125</v>
+        <v>231.3300018310547</v>
       </c>
       <c r="F79">
-        <v>8667900</v>
+        <v>6058300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>229.3899993896484</v>
+        <v>229</v>
       </c>
       <c r="B80">
-        <v>231.1799926757812</v>
+        <v>233.5700073242188</v>
       </c>
       <c r="C80">
-        <v>225.3999938964844</v>
+        <v>226.8899993896484</v>
       </c>
       <c r="D80">
-        <v>226.4799957275391</v>
+        <v>232.2700042724609</v>
       </c>
       <c r="E80">
-        <v>226.4799957275391</v>
+        <v>232.2700042724609</v>
       </c>
       <c r="F80">
-        <v>9923300</v>
+        <v>8358600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>227.1900024414062</v>
+        <v>231.9700012207031</v>
       </c>
       <c r="B81">
-        <v>230.4700012207031</v>
+        <v>236.8500061035156</v>
       </c>
       <c r="C81">
-        <v>224.8699951171875</v>
+        <v>231.6199951171875</v>
       </c>
       <c r="D81">
-        <v>225.3399963378906</v>
+        <v>235.7799987792969</v>
       </c>
       <c r="E81">
-        <v>225.3399963378906</v>
+        <v>235.7799987792969</v>
       </c>
       <c r="F81">
-        <v>8889100</v>
+        <v>9603500</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>225.8999938964844</v>
+        <v>236.6100006103516</v>
       </c>
       <c r="B82">
-        <v>229.1000061035156</v>
+        <v>239.5899963378906</v>
       </c>
       <c r="C82">
-        <v>221.3000030517578</v>
+        <v>234.5800018310547</v>
       </c>
       <c r="D82">
-        <v>229.0899963378906</v>
+        <v>239.4900054931641</v>
       </c>
       <c r="E82">
-        <v>229.0899963378906</v>
+        <v>239.4900054931641</v>
       </c>
       <c r="F82">
-        <v>7326400</v>
+        <v>9664000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>226.4199981689453</v>
+        <v>240</v>
       </c>
       <c r="B83">
-        <v>232.3500061035156</v>
+        <v>241.1499938964844</v>
       </c>
       <c r="C83">
-        <v>225.3300018310547</v>
+        <v>236.5099945068359</v>
       </c>
       <c r="D83">
-        <v>226.6300048828125</v>
+        <v>238.1799926757812</v>
       </c>
       <c r="E83">
-        <v>226.6300048828125</v>
+        <v>238.1799926757812</v>
       </c>
       <c r="F83">
-        <v>9756300</v>
+        <v>6810000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>226.6799926757812</v>
+        <v>238.0099945068359</v>
       </c>
       <c r="B84">
-        <v>231.5399932861328</v>
+        <v>239.6900024414062</v>
       </c>
       <c r="C84">
-        <v>226.4900054931641</v>
+        <v>234.2799987792969</v>
       </c>
       <c r="D84">
-        <v>229.9400024414062</v>
+        <v>234.4600067138672</v>
       </c>
       <c r="E84">
-        <v>229.9400024414062</v>
+        <v>234.4600067138672</v>
       </c>
       <c r="F84">
-        <v>8362600</v>
+        <v>6379600</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>231.5500030517578</v>
+        <v>231.8999938964844</v>
       </c>
       <c r="B85">
-        <v>233.5700073242188</v>
+        <v>232.0299987792969</v>
       </c>
       <c r="C85">
-        <v>230.4199981689453</v>
+        <v>227.1399993896484</v>
       </c>
       <c r="D85">
-        <v>231.3300018310547</v>
+        <v>229.0599975585938</v>
       </c>
       <c r="E85">
-        <v>231.3300018310547</v>
+        <v>229.0599975585938</v>
       </c>
       <c r="F85">
-        <v>6058300</v>
+        <v>7622000</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>229</v>
+        <v>226.1999969482422</v>
       </c>
       <c r="B86">
-        <v>233.5700073242188</v>
+        <v>226.2400054931641</v>
       </c>
       <c r="C86">
-        <v>226.8899993896484</v>
+        <v>219.8000030517578</v>
       </c>
       <c r="D86">
-        <v>232.2700042724609</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="E86">
-        <v>232.2700042724609</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="F86">
-        <v>8358600</v>
+        <v>13124000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>231.9700012207031</v>
+        <v>221.7299957275391</v>
       </c>
       <c r="B87">
-        <v>236.8500061035156</v>
+        <v>223.6499938964844</v>
       </c>
       <c r="C87">
-        <v>231.6199951171875</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D87">
-        <v>235.7799987792969</v>
+        <v>219</v>
       </c>
       <c r="E87">
-        <v>235.7799987792969</v>
+        <v>219</v>
       </c>
       <c r="F87">
-        <v>9603500</v>
+        <v>9000900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>236.6100006103516</v>
+        <v>216.3000030517578</v>
       </c>
       <c r="B88">
-        <v>239.5899963378906</v>
+        <v>218.3000030517578</v>
       </c>
       <c r="C88">
-        <v>234.5800018310547</v>
+        <v>211.7299957275391</v>
       </c>
       <c r="D88">
-        <v>239.4900054931641</v>
+        <v>212.1600036621094</v>
       </c>
       <c r="E88">
-        <v>239.4900054931641</v>
+        <v>212.1600036621094</v>
       </c>
       <c r="F88">
-        <v>9664000</v>
+        <v>11404400</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>240</v>
+        <v>212.3099975585938</v>
       </c>
       <c r="B89">
-        <v>241.1499938964844</v>
+        <v>214.7400054931641</v>
       </c>
       <c r="C89">
-        <v>236.5099945068359</v>
+        <v>210.9400024414062</v>
       </c>
       <c r="D89">
-        <v>238.1799926757812</v>
+        <v>212.6699981689453</v>
       </c>
       <c r="E89">
-        <v>238.1799926757812</v>
+        <v>212.6699981689453</v>
       </c>
       <c r="F89">
-        <v>6810000</v>
+        <v>9324800</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>238.0099945068359</v>
+        <v>215.8300018310547</v>
       </c>
       <c r="B90">
-        <v>239.6900024414062</v>
+        <v>220.1799926757812</v>
       </c>
       <c r="C90">
-        <v>234.2799987792969</v>
+        <v>215.3800048828125</v>
       </c>
       <c r="D90">
-        <v>234.4600067138672</v>
+        <v>219.3999938964844</v>
       </c>
       <c r="E90">
-        <v>234.4600067138672</v>
+        <v>219.3999938964844</v>
       </c>
       <c r="F90">
-        <v>6379600</v>
+        <v>10392100</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>231.8999938964844</v>
+        <v>220.1100006103516</v>
       </c>
       <c r="B91">
-        <v>232.0299987792969</v>
+        <v>223.1000061035156</v>
       </c>
       <c r="C91">
-        <v>227.1399993896484</v>
+        <v>219.8000030517578</v>
       </c>
       <c r="D91">
-        <v>229.0599975585938</v>
+        <v>221.4299926757812</v>
       </c>
       <c r="E91">
-        <v>229.0599975585938</v>
+        <v>221.4299926757812</v>
       </c>
       <c r="F91">
-        <v>7622000</v>
+        <v>8942600</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>226.1999969482422</v>
+        <v>221.5</v>
       </c>
       <c r="B92">
-        <v>226.2400054931641</v>
+        <v>222.3000030517578</v>
       </c>
       <c r="C92">
-        <v>219.8000030517578</v>
+        <v>219.1000061035156</v>
       </c>
       <c r="D92">
-        <v>222.2200012207031</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="E92">
-        <v>222.2200012207031</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="F92">
-        <v>13124000</v>
+        <v>6528900</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>221.7299957275391</v>
+        <v>221.4100036621094</v>
       </c>
       <c r="B93">
-        <v>223.6499938964844</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="C93">
-        <v>218.8999938964844</v>
+        <v>215.9100036621094</v>
       </c>
       <c r="D93">
-        <v>219</v>
+        <v>216.5</v>
       </c>
       <c r="E93">
-        <v>219</v>
+        <v>216.5</v>
       </c>
       <c r="F93">
-        <v>9000900</v>
+        <v>8341400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>216.3000030517578</v>
+        <v>217.4700012207031</v>
       </c>
       <c r="B94">
-        <v>218.3000030517578</v>
+        <v>222.4299926757812</v>
       </c>
       <c r="C94">
-        <v>211.7299957275391</v>
+        <v>216.8600006103516</v>
       </c>
       <c r="D94">
-        <v>212.1600036621094</v>
+        <v>221.75</v>
       </c>
       <c r="E94">
-        <v>212.1600036621094</v>
+        <v>221.75</v>
       </c>
       <c r="F94">
-        <v>11404400</v>
+        <v>7675300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>212.3099975585938</v>
+        <v>222.3500061035156</v>
       </c>
       <c r="B95">
-        <v>214.7400054931641</v>
+        <v>222.3699951171875</v>
       </c>
       <c r="C95">
-        <v>210.9400024414062</v>
+        <v>217.5299987792969</v>
       </c>
       <c r="D95">
-        <v>212.6699981689453</v>
+        <v>217.6600036621094</v>
       </c>
       <c r="E95">
-        <v>212.6699981689453</v>
+        <v>217.6600036621094</v>
       </c>
       <c r="F95">
-        <v>9324800</v>
+        <v>7587800</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>215.8300018310547</v>
+        <v>217.3300018310547</v>
       </c>
       <c r="B96">
-        <v>220.1799926757812</v>
+        <v>221.3300018310547</v>
       </c>
       <c r="C96">
-        <v>215.3800048828125</v>
+        <v>217.0899963378906</v>
       </c>
       <c r="D96">
-        <v>219.3999938964844</v>
+        <v>219.5</v>
       </c>
       <c r="E96">
-        <v>219.3999938964844</v>
+        <v>219.5</v>
       </c>
       <c r="F96">
-        <v>10392100</v>
+        <v>6764500</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>220.1100006103516</v>
+        <v>220</v>
       </c>
       <c r="B97">
-        <v>223.1000061035156</v>
+        <v>221.7599945068359</v>
       </c>
       <c r="C97">
-        <v>219.8000030517578</v>
+        <v>217.6199951171875</v>
       </c>
       <c r="D97">
-        <v>221.4299926757812</v>
+        <v>218.1199951171875</v>
       </c>
       <c r="E97">
-        <v>221.4299926757812</v>
+        <v>218.1199951171875</v>
       </c>
       <c r="F97">
-        <v>8942600</v>
+        <v>7157400</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>221.5</v>
+        <v>218.9499969482422</v>
       </c>
       <c r="B98">
-        <v>222.3000030517578</v>
+        <v>223.8399963378906</v>
       </c>
       <c r="C98">
-        <v>219.1000061035156</v>
+        <v>218.0800018310547</v>
       </c>
       <c r="D98">
-        <v>221.0299987792969</v>
+        <v>220.8300018310547</v>
       </c>
       <c r="E98">
-        <v>221.0299987792969</v>
+        <v>220.8300018310547</v>
       </c>
       <c r="F98">
-        <v>6528900</v>
+        <v>8899500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>221.4100036621094</v>
+        <v>219.4499969482422</v>
       </c>
       <c r="B99">
-        <v>222.8999938964844</v>
+        <v>221.1799926757812</v>
       </c>
       <c r="C99">
-        <v>215.9100036621094</v>
+        <v>217.4600067138672</v>
       </c>
       <c r="D99">
-        <v>216.5</v>
+        <v>218.1699981689453</v>
       </c>
       <c r="E99">
-        <v>216.5</v>
+        <v>218.1699981689453</v>
       </c>
       <c r="F99">
-        <v>8341400</v>
+        <v>6393500</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>217.4700012207031</v>
+        <v>215.9100036621094</v>
       </c>
       <c r="B100">
-        <v>222.4299926757812</v>
+        <v>216.7100067138672</v>
       </c>
       <c r="C100">
-        <v>216.8600006103516</v>
+        <v>212.1699981689453</v>
       </c>
       <c r="D100">
-        <v>221.75</v>
+        <v>214.2400054931641</v>
       </c>
       <c r="E100">
-        <v>221.75</v>
+        <v>214.2400054931641</v>
       </c>
       <c r="F100">
-        <v>7675300</v>
+        <v>13196100</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>222.3500061035156</v>
+        <v>213.6000061035156</v>
       </c>
       <c r="B101">
-        <v>222.3699951171875</v>
+        <v>216.0800018310547</v>
       </c>
       <c r="C101">
-        <v>217.5299987792969</v>
+        <v>210.5099945068359</v>
       </c>
       <c r="D101">
-        <v>217.6600036621094</v>
+        <v>211.3800048828125</v>
       </c>
       <c r="E101">
-        <v>217.6600036621094</v>
+        <v>211.3800048828125</v>
       </c>
       <c r="F101">
-        <v>7587800</v>
+        <v>8877600</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>217.3300018310547</v>
+        <v>211.1499938964844</v>
       </c>
       <c r="B102">
-        <v>221.3300018310547</v>
+        <v>216.6100006103516</v>
       </c>
       <c r="C102">
-        <v>217.0899963378906</v>
+        <v>210.7200012207031</v>
       </c>
       <c r="D102">
-        <v>219.5</v>
+        <v>213.9400024414062</v>
       </c>
       <c r="E102">
-        <v>219.5</v>
+        <v>213.9400024414062</v>
       </c>
       <c r="F102">
-        <v>6764500</v>
+        <v>9242800</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>220</v>
+        <v>215.1600036621094</v>
       </c>
       <c r="B103">
-        <v>221.7599945068359</v>
+        <v>215.8899993896484</v>
       </c>
       <c r="C103">
-        <v>217.6199951171875</v>
+        <v>210.1199951171875</v>
       </c>
       <c r="D103">
-        <v>218.1199951171875</v>
+        <v>210.3000030517578</v>
       </c>
       <c r="E103">
-        <v>218.1199951171875</v>
+        <v>210.3000030517578</v>
       </c>
       <c r="F103">
-        <v>7157400</v>
+        <v>6937100</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>218.9499969482422</v>
+        <v>211.3500061035156</v>
       </c>
       <c r="B104">
-        <v>223.8399963378906</v>
+        <v>215.6399993896484</v>
       </c>
       <c r="C104">
-        <v>218.0800018310547</v>
+        <v>209.8800048828125</v>
       </c>
       <c r="D104">
-        <v>220.8300018310547</v>
+        <v>214.4799957275391</v>
       </c>
       <c r="E104">
-        <v>220.8300018310547</v>
+        <v>214.4799957275391</v>
       </c>
       <c r="F104">
-        <v>8899500</v>
+        <v>10175900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>219.4499969482422</v>
+        <v>215.8399963378906</v>
       </c>
       <c r="B105">
-        <v>221.1799926757812</v>
+        <v>216.1100006103516</v>
       </c>
       <c r="C105">
-        <v>217.4600067138672</v>
+        <v>210.7100067138672</v>
       </c>
       <c r="D105">
-        <v>218.1699981689453</v>
+        <v>211.5700073242188</v>
       </c>
       <c r="E105">
-        <v>218.1699981689453</v>
+        <v>211.5700073242188</v>
       </c>
       <c r="F105">
-        <v>6393500</v>
+        <v>9947000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>215.9100036621094</v>
+        <v>211.7899932861328</v>
       </c>
       <c r="B106">
-        <v>216.7100067138672</v>
+        <v>214.3500061035156</v>
       </c>
       <c r="C106">
-        <v>212.1699981689453</v>
+        <v>210.3200073242188</v>
       </c>
       <c r="D106">
-        <v>214.2400054931641</v>
+        <v>214.2200012207031</v>
       </c>
       <c r="E106">
-        <v>214.2400054931641</v>
+        <v>214.2200012207031</v>
       </c>
       <c r="F106">
-        <v>13196100</v>
+        <v>7916300</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>213.6000061035156</v>
+        <v>213.9600067138672</v>
       </c>
       <c r="B107">
-        <v>216.0800018310547</v>
+        <v>216.3099975585938</v>
       </c>
       <c r="C107">
-        <v>210.5099945068359</v>
+        <v>213.3099975585938</v>
       </c>
       <c r="D107">
-        <v>211.3800048828125</v>
+        <v>213.3600006103516</v>
       </c>
       <c r="E107">
-        <v>211.3800048828125</v>
+        <v>213.3600006103516</v>
       </c>
       <c r="F107">
-        <v>8877600</v>
+        <v>6370900</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>211.1499938964844</v>
+        <v>213.1199951171875</v>
       </c>
       <c r="B108">
-        <v>216.6100006103516</v>
+        <v>215.3699951171875</v>
       </c>
       <c r="C108">
-        <v>210.7200012207031</v>
+        <v>211.9100036621094</v>
       </c>
       <c r="D108">
-        <v>213.9400024414062</v>
+        <v>213.3600006103516</v>
       </c>
       <c r="E108">
-        <v>213.9400024414062</v>
+        <v>213.3600006103516</v>
       </c>
       <c r="F108">
-        <v>9242800</v>
+        <v>7932700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>215.1600036621094</v>
+        <v>210.8099975585938</v>
       </c>
       <c r="B109">
-        <v>215.8899993896484</v>
+        <v>212.4299926757812</v>
       </c>
       <c r="C109">
-        <v>210.1199951171875</v>
+        <v>206.5299987792969</v>
       </c>
       <c r="D109">
-        <v>210.3000030517578</v>
+        <v>209.5</v>
       </c>
       <c r="E109">
-        <v>210.3000030517578</v>
+        <v>209.5</v>
       </c>
       <c r="F109">
-        <v>6937100</v>
+        <v>10567400</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>211.3500061035156</v>
+        <v>210.25</v>
       </c>
       <c r="B110">
-        <v>215.6399993896484</v>
+        <v>211.7599945068359</v>
       </c>
       <c r="C110">
-        <v>209.8800048828125</v>
+        <v>207.7200012207031</v>
       </c>
       <c r="D110">
-        <v>214.4799957275391</v>
+        <v>208.5099945068359</v>
       </c>
       <c r="E110">
-        <v>214.4799957275391</v>
+        <v>208.5099945068359</v>
       </c>
       <c r="F110">
-        <v>10175900</v>
+        <v>7139000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>215.8399963378906</v>
+        <v>210</v>
       </c>
       <c r="B111">
-        <v>216.1100006103516</v>
+        <v>217.9900054931641</v>
       </c>
       <c r="C111">
-        <v>210.7100067138672</v>
+        <v>209.6499938964844</v>
       </c>
       <c r="D111">
-        <v>211.5700073242188</v>
+        <v>216.9799957275391</v>
       </c>
       <c r="E111">
-        <v>211.5700073242188</v>
+        <v>216.9799957275391</v>
       </c>
       <c r="F111">
-        <v>9947000</v>
+        <v>10953000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>211.7899932861328</v>
+        <v>217.8099975585938</v>
       </c>
       <c r="B112">
-        <v>214.3500061035156</v>
+        <v>222.6199951171875</v>
       </c>
       <c r="C112">
-        <v>210.3200073242188</v>
+        <v>217.1499938964844</v>
       </c>
       <c r="D112">
-        <v>214.2200012207031</v>
+        <v>221.1000061035156</v>
       </c>
       <c r="E112">
-        <v>214.2200012207031</v>
+        <v>221.1000061035156</v>
       </c>
       <c r="F112">
-        <v>7916300</v>
+        <v>9344600</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>213.9600067138672</v>
+        <v>219.1300048828125</v>
       </c>
       <c r="B113">
-        <v>216.3099975585938</v>
+        <v>222.4100036621094</v>
       </c>
       <c r="C113">
-        <v>213.3099975585938</v>
+        <v>218.6600036621094</v>
       </c>
       <c r="D113">
-        <v>213.3600006103516</v>
+        <v>221.3899993896484</v>
       </c>
       <c r="E113">
-        <v>213.3600006103516</v>
+        <v>221.3899993896484</v>
       </c>
       <c r="F113">
-        <v>6370900</v>
+        <v>6498200</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>213.1199951171875</v>
+        <v>224</v>
       </c>
       <c r="B114">
-        <v>215.3699951171875</v>
+        <v>228.6000061035156</v>
       </c>
       <c r="C114">
-        <v>211.9100036621094</v>
+        <v>223.8800048828125</v>
       </c>
       <c r="D114">
-        <v>213.3600006103516</v>
+        <v>224.1600036621094</v>
       </c>
       <c r="E114">
-        <v>213.3600006103516</v>
+        <v>224.1600036621094</v>
       </c>
       <c r="F114">
-        <v>7932700</v>
+        <v>9749200</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>210.8099975585938</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="B115">
-        <v>212.4299926757812</v>
+        <v>224.5800018310547</v>
       </c>
       <c r="C115">
-        <v>206.5299987792969</v>
+        <v>216.4199981689453</v>
       </c>
       <c r="D115">
-        <v>209.5</v>
+        <v>218.4100036621094</v>
       </c>
       <c r="E115">
-        <v>209.5</v>
+        <v>218.4100036621094</v>
       </c>
       <c r="F115">
-        <v>10567400</v>
+        <v>9639800</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>210.25</v>
+        <v>227.8000030517578</v>
       </c>
       <c r="B116">
-        <v>211.7599945068359</v>
+        <v>229.9400024414062</v>
       </c>
       <c r="C116">
-        <v>207.7200012207031</v>
+        <v>224.8600006103516</v>
       </c>
       <c r="D116">
-        <v>208.5099945068359</v>
+        <v>225.3600006103516</v>
       </c>
       <c r="E116">
-        <v>208.5099945068359</v>
+        <v>225.3600006103516</v>
       </c>
       <c r="F116">
-        <v>7139000</v>
+        <v>16808000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>210</v>
+        <v>226.0800018310547</v>
       </c>
       <c r="B117">
-        <v>217.9900054931641</v>
+        <v>226.1499938964844</v>
       </c>
       <c r="C117">
-        <v>209.6499938964844</v>
+        <v>219.4600067138672</v>
       </c>
       <c r="D117">
-        <v>216.9799957275391</v>
+        <v>219.9400024414062</v>
       </c>
       <c r="E117">
-        <v>216.9799957275391</v>
+        <v>219.9400024414062</v>
       </c>
       <c r="F117">
-        <v>10953000</v>
+        <v>10356200</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>217.8099975585938</v>
+        <v>222.8500061035156</v>
       </c>
       <c r="B118">
-        <v>222.6199951171875</v>
+        <v>226.7200012207031</v>
       </c>
       <c r="C118">
-        <v>217.1499938964844</v>
+        <v>220.6000061035156</v>
       </c>
       <c r="D118">
-        <v>221.1000061035156</v>
+        <v>226</v>
       </c>
       <c r="E118">
-        <v>221.1000061035156</v>
+        <v>226</v>
       </c>
       <c r="F118">
-        <v>9344600</v>
+        <v>9113600</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>219.1300048828125</v>
+        <v>225.6799926757812</v>
       </c>
       <c r="B119">
-        <v>222.4100036621094</v>
+        <v>227.9700012207031</v>
       </c>
       <c r="C119">
-        <v>218.6600036621094</v>
+        <v>222</v>
       </c>
       <c r="D119">
-        <v>221.3899993896484</v>
+        <v>223.7899932861328</v>
       </c>
       <c r="E119">
-        <v>221.3899993896484</v>
+        <v>223.7899932861328</v>
       </c>
       <c r="F119">
-        <v>6498200</v>
+        <v>6946100</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>224</v>
+        <v>224.2700042724609</v>
       </c>
       <c r="B120">
-        <v>228.6000061035156</v>
+        <v>226.4499969482422</v>
       </c>
       <c r="C120">
-        <v>223.8800048828125</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="D120">
-        <v>224.1600036621094</v>
+        <v>224.4199981689453</v>
       </c>
       <c r="E120">
-        <v>224.1600036621094</v>
+        <v>224.4199981689453</v>
       </c>
       <c r="F120">
-        <v>9749200</v>
+        <v>5687300</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>222.8999938964844</v>
+        <v>221.0800018310547</v>
       </c>
       <c r="B121">
-        <v>224.5800018310547</v>
+        <v>225.0700073242188</v>
       </c>
       <c r="C121">
-        <v>216.4199981689453</v>
+        <v>219.1999969482422</v>
       </c>
       <c r="D121">
-        <v>218.4100036621094</v>
+        <v>224.9900054931641</v>
       </c>
       <c r="E121">
-        <v>218.4100036621094</v>
+        <v>224.9900054931641</v>
       </c>
       <c r="F121">
-        <v>9639800</v>
+        <v>7157600</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>227.8000030517578</v>
+        <v>227.3399963378906</v>
       </c>
       <c r="B122">
-        <v>229.9400024414062</v>
+        <v>229</v>
       </c>
       <c r="C122">
-        <v>224.8600006103516</v>
+        <v>225.8999938964844</v>
       </c>
       <c r="D122">
-        <v>225.3600006103516</v>
+        <v>226.4799957275391</v>
       </c>
       <c r="E122">
-        <v>225.3600006103516</v>
+        <v>226.4799957275391</v>
       </c>
       <c r="F122">
-        <v>16808000</v>
+        <v>7748500</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>226.0800018310547</v>
+        <v>226.75</v>
       </c>
       <c r="B123">
-        <v>226.1499938964844</v>
+        <v>228.7100067138672</v>
       </c>
       <c r="C123">
-        <v>219.4600067138672</v>
+        <v>225.3999938964844</v>
       </c>
       <c r="D123">
-        <v>219.9400024414062</v>
+        <v>226.3899993896484</v>
       </c>
       <c r="E123">
-        <v>219.9400024414062</v>
+        <v>226.3899993896484</v>
       </c>
       <c r="F123">
-        <v>10356200</v>
+        <v>4512400</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>222.8500061035156</v>
+        <v>226.5</v>
       </c>
       <c r="B124">
-        <v>226.7200012207031</v>
+        <v>232.1000061035156</v>
       </c>
       <c r="C124">
-        <v>220.6000061035156</v>
+        <v>225.3200073242188</v>
       </c>
       <c r="D124">
-        <v>226</v>
+        <v>226.4499969482422</v>
       </c>
       <c r="E124">
-        <v>226</v>
+        <v>226.4499969482422</v>
       </c>
       <c r="F124">
-        <v>9113600</v>
+        <v>7287000</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>225.6799926757812</v>
+        <v>226</v>
       </c>
       <c r="B125">
-        <v>227.9700012207031</v>
+        <v>228.6600036621094</v>
       </c>
       <c r="C125">
-        <v>222</v>
+        <v>223.1199951171875</v>
       </c>
       <c r="D125">
-        <v>223.7899932861328</v>
+        <v>223.5700073242188</v>
       </c>
       <c r="E125">
-        <v>223.7899932861328</v>
+        <v>223.5700073242188</v>
       </c>
       <c r="F125">
-        <v>6946100</v>
+        <v>8486800</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>224.2700042724609</v>
+        <v>224</v>
       </c>
       <c r="B126">
-        <v>226.4499969482422</v>
+        <v>224.3000030517578</v>
       </c>
       <c r="C126">
-        <v>222.4199981689453</v>
+        <v>219.3600006103516</v>
       </c>
       <c r="D126">
-        <v>224.4199981689453</v>
+        <v>221.7799987792969</v>
       </c>
       <c r="E126">
-        <v>224.4199981689453</v>
+        <v>221.7799987792969</v>
       </c>
       <c r="F126">
-        <v>5687300</v>
+        <v>8240200</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>221.0800018310547</v>
+        <v>221.0700073242188</v>
       </c>
       <c r="B127">
-        <v>225.0700073242188</v>
+        <v>222.1799926757812</v>
       </c>
       <c r="C127">
-        <v>219.1999969482422</v>
+        <v>217.0399932861328</v>
       </c>
       <c r="D127">
-        <v>224.9900054931641</v>
+        <v>217.4400024414062</v>
       </c>
       <c r="E127">
-        <v>224.9900054931641</v>
+        <v>217.4400024414062</v>
       </c>
       <c r="F127">
-        <v>7157600</v>
+        <v>10427300</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>227.3399963378906</v>
+        <v>218.1699981689453</v>
       </c>
       <c r="B128">
-        <v>229</v>
+        <v>219.6100006103516</v>
       </c>
       <c r="C128">
-        <v>225.8999938964844</v>
+        <v>216.2799987792969</v>
       </c>
       <c r="D128">
-        <v>226.4799957275391</v>
+        <v>217.0399932861328</v>
       </c>
       <c r="E128">
-        <v>226.4799957275391</v>
+        <v>217.0399932861328</v>
       </c>
       <c r="F128">
-        <v>7748500</v>
+        <v>8756200</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>226.75</v>
+        <v>216</v>
       </c>
       <c r="B129">
-        <v>228.7100067138672</v>
+        <v>216.2400054931641</v>
       </c>
       <c r="C129">
-        <v>225.3999938964844</v>
+        <v>214.0599975585938</v>
       </c>
       <c r="D129">
-        <v>226.3899993896484</v>
+        <v>216.0946044921875</v>
       </c>
       <c r="E129">
-        <v>226.3899993896484</v>
+        <v>216.0946044921875</v>
       </c>
       <c r="F129">
-        <v>4512400</v>
+        <v>3285707</v>
       </c>
     </row>
   </sheetData>
